--- a/afccp/resources/shared/real/Value_Parameters_Defaults_2023.xlsx
+++ b/afccp/resources/shared/real/Value_Parameters_Defaults_2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/griffenlaird/Desktop/Coding Projects/afccp/afccp/resources/shared/real/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B53449-4613-9049-9A17-60B94F7FF62A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99160771-CEC3-DF40-89BB-7154494C7514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="30260" windowHeight="17640" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="24840" windowHeight="17480" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overall Weights" sheetId="1" r:id="rId1"/>
@@ -58,9 +58,6 @@
     <t>AFSC Weight Function</t>
   </si>
   <si>
-    <t>Linear</t>
-  </si>
-  <si>
     <t>Piece</t>
   </si>
   <si>
@@ -401,6 +398,9 @@
   </si>
   <si>
     <t>0.8, 5</t>
+  </si>
+  <si>
+    <t>Curve_1</t>
   </si>
 </sst>
 </file>
@@ -780,9 +780,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -806,10 +813,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="B2">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -818,10 +825,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F2" t="s">
         <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -833,24 +840,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>55.49</v>
@@ -861,7 +870,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>55.49</v>
@@ -872,7 +881,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>88.82</v>
@@ -883,7 +892,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>55.49</v>
@@ -894,7 +903,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6">
         <v>100</v>
@@ -905,7 +914,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7">
         <v>66.67</v>
@@ -916,7 +925,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8">
         <v>66.67</v>
@@ -927,7 +936,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9">
         <v>100</v>
@@ -938,7 +947,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10">
         <v>77.64</v>
@@ -949,7 +958,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11">
         <v>66.67</v>
@@ -960,7 +969,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12">
         <v>77.64</v>
@@ -971,7 +980,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13">
         <v>66.67</v>
@@ -982,7 +991,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14">
         <v>55.49</v>
@@ -993,7 +1002,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15">
         <v>55.49</v>
@@ -1004,7 +1013,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16">
         <v>55.49</v>
@@ -1015,7 +1024,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>55.49</v>
@@ -1026,7 +1035,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>66.67</v>
@@ -1037,7 +1046,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>55.49</v>
@@ -1048,7 +1057,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B20">
         <v>55.49</v>
@@ -1059,7 +1068,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B21">
         <v>77.64</v>
@@ -1070,7 +1079,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B22">
         <v>55.49</v>
@@ -1081,7 +1090,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23">
         <v>55.49</v>
@@ -1092,7 +1101,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B24">
         <v>55.49</v>
@@ -1103,7 +1112,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B25">
         <v>55.49</v>
@@ -1114,7 +1123,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B26">
         <v>55.49</v>
@@ -1125,7 +1134,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>77.64</v>
@@ -1136,7 +1145,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B28">
         <v>66.67</v>
@@ -1147,7 +1156,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B29">
         <v>55.49</v>
@@ -1158,7 +1167,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B30">
         <v>55.49</v>
@@ -1169,7 +1178,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B31">
         <v>77.64</v>
@@ -1180,7 +1189,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B32">
         <v>77.64</v>
@@ -1191,7 +1200,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B33">
         <v>66.67</v>
@@ -1209,53 +1218,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1293,7 +1302,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1331,7 +1340,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>30.00000086999999</v>
@@ -1369,7 +1378,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1407,7 +1416,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6">
         <v>30</v>
@@ -1445,7 +1454,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1483,7 +1492,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1521,7 +1530,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9">
         <v>30</v>
@@ -1559,7 +1568,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10">
         <v>29.999999729999999</v>
@@ -1597,7 +1606,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1635,7 +1644,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12">
         <v>29.999999729999999</v>
@@ -1673,7 +1682,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1711,7 +1720,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1749,7 +1758,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1787,7 +1796,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1825,7 +1834,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1863,7 +1872,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>30.000000300000011</v>
@@ -1901,7 +1910,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1939,7 +1948,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -1977,7 +1986,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B21">
         <v>30</v>
@@ -2015,7 +2024,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -2053,7 +2062,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -2091,7 +2100,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -2129,7 +2138,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -2167,7 +2176,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -2205,13 +2214,13 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D27">
         <v>100</v>
@@ -2243,7 +2252,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -2281,7 +2290,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -2319,7 +2328,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -2357,7 +2366,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B31">
         <v>30.000000300000011</v>
@@ -2395,7 +2404,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B32">
         <v>29.999999729999999</v>
@@ -2433,7 +2442,7 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -2479,52 +2488,52 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>0.50095019880045821</v>
@@ -2562,7 +2571,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0.50095019880045821</v>
@@ -2600,7 +2609,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>0.50000171807800331</v>
@@ -2638,7 +2647,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0.50095019880045821</v>
@@ -2676,7 +2685,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6">
         <v>0.50000171807800331</v>
@@ -2714,7 +2723,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7">
         <v>0.50095019880045821</v>
@@ -2752,7 +2761,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8">
         <v>0.50095019880045821</v>
@@ -2790,7 +2799,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9">
         <v>0.50000171807800331</v>
@@ -2828,7 +2837,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10">
         <v>0.50000171807800331</v>
@@ -2866,7 +2875,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11">
         <v>0.50095019880045821</v>
@@ -2904,7 +2913,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12">
         <v>0.50000171807800331</v>
@@ -2942,7 +2951,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13">
         <v>0.50095019880045821</v>
@@ -2980,7 +2989,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14">
         <v>0.50095019880045821</v>
@@ -3018,7 +3027,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15">
         <v>0.50095019880045821</v>
@@ -3056,7 +3065,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16">
         <v>0.50095019880045821</v>
@@ -3094,7 +3103,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0.50095019880045821</v>
@@ -3132,7 +3141,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0.50000171807800331</v>
@@ -3170,7 +3179,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0.50095019880045821</v>
@@ -3208,7 +3217,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B20">
         <v>0.50095019880045821</v>
@@ -3246,7 +3255,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B21">
         <v>0.50000171807800331</v>
@@ -3284,7 +3293,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B22">
         <v>0.50095019880045821</v>
@@ -3322,7 +3331,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23">
         <v>0.50095019880045821</v>
@@ -3360,7 +3369,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B24">
         <v>0.50095019880045821</v>
@@ -3398,7 +3407,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B25">
         <v>0.50095019880045821</v>
@@ -3436,7 +3445,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B26">
         <v>0.50095019880045821</v>
@@ -3474,7 +3483,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0.50095019880045821</v>
@@ -3512,7 +3521,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B28">
         <v>0.50095019880045821</v>
@@ -3550,7 +3559,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B29">
         <v>0.50095019880045821</v>
@@ -3588,7 +3597,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B30">
         <v>0.50095019880045821</v>
@@ -3626,7 +3635,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B31">
         <v>0.50000171807800331</v>
@@ -3664,7 +3673,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B32">
         <v>0.50000171807800331</v>
@@ -3702,7 +3711,7 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B33">
         <v>0.50095019880045821</v>
@@ -3747,53 +3756,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O34" sqref="O34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q34" sqref="Q34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -3802,36 +3811,36 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" t="s">
         <v>55</v>
       </c>
-      <c r="E2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G2" t="s">
-        <v>56</v>
-      </c>
       <c r="H2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -3840,74 +3849,74 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" t="s">
         <v>58</v>
       </c>
-      <c r="E4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G4" t="s">
-        <v>59</v>
-      </c>
       <c r="H4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -3916,74 +3925,74 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" t="s">
         <v>60</v>
       </c>
-      <c r="E5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G5" t="s">
-        <v>61</v>
-      </c>
       <c r="H5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" t="s">
         <v>117</v>
       </c>
-      <c r="C6" t="s">
-        <v>116</v>
-      </c>
-      <c r="D6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F6" t="s">
-        <v>54</v>
-      </c>
-      <c r="G6" t="s">
-        <v>118</v>
-      </c>
       <c r="H6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -3992,36 +4001,36 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -4030,112 +4039,112 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" t="s">
         <v>64</v>
       </c>
-      <c r="E8" t="s">
-        <v>54</v>
-      </c>
-      <c r="F8" t="s">
-        <v>54</v>
-      </c>
-      <c r="G8" t="s">
-        <v>65</v>
-      </c>
       <c r="H8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -4144,74 +4153,74 @@
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -4220,36 +4229,36 @@
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -4258,36 +4267,36 @@
         <v>0</v>
       </c>
       <c r="D14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" t="s">
         <v>71</v>
       </c>
-      <c r="E14" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" t="s">
-        <v>54</v>
-      </c>
-      <c r="G14" t="s">
-        <v>72</v>
-      </c>
       <c r="H14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -4296,36 +4305,36 @@
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -4334,36 +4343,36 @@
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -4372,74 +4381,74 @@
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -4448,36 +4457,36 @@
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -4486,74 +4495,74 @@
         <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -4562,36 +4571,36 @@
         <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -4600,36 +4609,36 @@
         <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -4638,36 +4647,36 @@
         <v>0</v>
       </c>
       <c r="D24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -4676,36 +4685,36 @@
         <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -4714,36 +4723,36 @@
         <v>0</v>
       </c>
       <c r="D26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -4752,36 +4761,36 @@
         <v>0</v>
       </c>
       <c r="D27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -4790,36 +4799,36 @@
         <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -4828,36 +4837,36 @@
         <v>0</v>
       </c>
       <c r="D29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -4866,112 +4875,112 @@
         <v>0</v>
       </c>
       <c r="D30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B31" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C31" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D31" t="s">
+        <v>86</v>
+      </c>
+      <c r="E31" t="s">
+        <v>53</v>
+      </c>
+      <c r="F31" t="s">
+        <v>53</v>
+      </c>
+      <c r="G31" t="s">
         <v>87</v>
       </c>
-      <c r="E31" t="s">
-        <v>54</v>
-      </c>
-      <c r="F31" t="s">
-        <v>54</v>
-      </c>
-      <c r="G31" t="s">
-        <v>88</v>
-      </c>
       <c r="H31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C32">
         <v>0</v>
       </c>
       <c r="D32" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -4980,31 +4989,31 @@
         <v>0</v>
       </c>
       <c r="D33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -5017,52 +5026,55 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+      <selection activeCell="P38" sqref="P38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="15.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -5100,7 +5112,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -5138,7 +5150,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -5176,7 +5188,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -5214,7 +5226,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -5252,7 +5264,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -5290,7 +5302,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -5328,7 +5340,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -5366,7 +5378,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10">
         <v>4</v>
@@ -5404,7 +5416,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -5442,7 +5454,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12">
         <v>4</v>
@@ -5480,7 +5492,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -5518,7 +5530,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -5556,7 +5568,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -5594,7 +5606,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -5632,7 +5644,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -5670,7 +5682,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>4</v>
@@ -5708,7 +5720,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -5746,7 +5758,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -5784,7 +5796,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B21">
         <v>4</v>
@@ -5822,7 +5834,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -5860,7 +5872,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -5898,7 +5910,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -5936,7 +5948,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -5974,7 +5986,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -6012,7 +6024,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -6050,7 +6062,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -6088,7 +6100,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -6126,7 +6138,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -6164,7 +6176,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B31">
         <v>4</v>
@@ -6202,7 +6214,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B32">
         <v>4</v>
@@ -6240,7 +6252,7 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -6286,7 +6298,7 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6299,1256 +6311,1256 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H2" t="s">
         <v>93</v>
       </c>
-      <c r="F2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G2" t="s">
-        <v>115</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>94</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>95</v>
       </c>
-      <c r="J2" t="s">
-        <v>96</v>
-      </c>
       <c r="K2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" t="s">
         <v>91</v>
       </c>
-      <c r="C3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>92</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H3" t="s">
         <v>93</v>
       </c>
-      <c r="F3" t="s">
-        <v>93</v>
-      </c>
-      <c r="G3" t="s">
-        <v>115</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>94</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>95</v>
       </c>
-      <c r="J3" t="s">
-        <v>96</v>
-      </c>
       <c r="K3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H4" t="s">
         <v>93</v>
       </c>
-      <c r="F4" t="s">
-        <v>93</v>
-      </c>
-      <c r="G4" t="s">
-        <v>115</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>94</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>95</v>
       </c>
-      <c r="J4" t="s">
-        <v>96</v>
-      </c>
       <c r="K4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I5" t="s">
+        <v>94</v>
+      </c>
+      <c r="J5" t="s">
         <v>95</v>
       </c>
-      <c r="J5" t="s">
-        <v>96</v>
-      </c>
       <c r="K5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G6" t="s">
+        <v>114</v>
+      </c>
+      <c r="H6" t="s">
         <v>93</v>
       </c>
-      <c r="F6" t="s">
-        <v>93</v>
-      </c>
-      <c r="G6" t="s">
-        <v>115</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>94</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>95</v>
       </c>
-      <c r="J6" t="s">
-        <v>96</v>
-      </c>
       <c r="K6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I7" t="s">
+        <v>94</v>
+      </c>
+      <c r="J7" t="s">
         <v>95</v>
       </c>
-      <c r="J7" t="s">
-        <v>96</v>
-      </c>
       <c r="K7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" t="s">
+        <v>114</v>
+      </c>
+      <c r="H8" t="s">
         <v>93</v>
       </c>
-      <c r="F8" t="s">
-        <v>93</v>
-      </c>
-      <c r="G8" t="s">
-        <v>115</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>94</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>95</v>
       </c>
-      <c r="J8" t="s">
-        <v>96</v>
-      </c>
       <c r="K8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I9" t="s">
+        <v>94</v>
+      </c>
+      <c r="J9" t="s">
         <v>95</v>
       </c>
-      <c r="J9" t="s">
-        <v>96</v>
-      </c>
       <c r="K9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E10" t="s">
+        <v>92</v>
+      </c>
+      <c r="F10" t="s">
+        <v>92</v>
+      </c>
+      <c r="G10" t="s">
+        <v>114</v>
+      </c>
+      <c r="H10" t="s">
         <v>93</v>
       </c>
-      <c r="F10" t="s">
-        <v>93</v>
-      </c>
-      <c r="G10" t="s">
-        <v>115</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>94</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>95</v>
       </c>
-      <c r="J10" t="s">
-        <v>96</v>
-      </c>
       <c r="K10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" t="s">
         <v>91</v>
       </c>
-      <c r="C11" t="s">
-        <v>91</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>92</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
+        <v>92</v>
+      </c>
+      <c r="G11" t="s">
+        <v>114</v>
+      </c>
+      <c r="H11" t="s">
         <v>93</v>
       </c>
-      <c r="F11" t="s">
-        <v>93</v>
-      </c>
-      <c r="G11" t="s">
-        <v>115</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>94</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>95</v>
       </c>
-      <c r="J11" t="s">
-        <v>96</v>
-      </c>
       <c r="K11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E12" t="s">
+        <v>92</v>
+      </c>
+      <c r="F12" t="s">
+        <v>92</v>
+      </c>
+      <c r="G12" t="s">
+        <v>114</v>
+      </c>
+      <c r="H12" t="s">
         <v>93</v>
       </c>
-      <c r="F12" t="s">
-        <v>93</v>
-      </c>
-      <c r="G12" t="s">
-        <v>115</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>94</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>95</v>
       </c>
-      <c r="J12" t="s">
-        <v>96</v>
-      </c>
       <c r="K12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E13" t="s">
+        <v>92</v>
+      </c>
+      <c r="F13" t="s">
+        <v>92</v>
+      </c>
+      <c r="G13" t="s">
+        <v>114</v>
+      </c>
+      <c r="H13" t="s">
         <v>93</v>
       </c>
-      <c r="F13" t="s">
-        <v>93</v>
-      </c>
-      <c r="G13" t="s">
-        <v>115</v>
-      </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>94</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>95</v>
       </c>
-      <c r="J13" t="s">
-        <v>96</v>
-      </c>
       <c r="K13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C14" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" t="s">
+        <v>108</v>
+      </c>
+      <c r="E14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F14" t="s">
+        <v>92</v>
+      </c>
+      <c r="G14" t="s">
+        <v>114</v>
+      </c>
+      <c r="H14" t="s">
+        <v>93</v>
+      </c>
+      <c r="I14" t="s">
+        <v>94</v>
+      </c>
+      <c r="J14" t="s">
         <v>95</v>
       </c>
-      <c r="D14" t="s">
-        <v>109</v>
-      </c>
-      <c r="E14" t="s">
-        <v>93</v>
-      </c>
-      <c r="F14" t="s">
-        <v>93</v>
-      </c>
-      <c r="G14" t="s">
-        <v>115</v>
-      </c>
-      <c r="H14" t="s">
-        <v>94</v>
-      </c>
-      <c r="I14" t="s">
-        <v>95</v>
-      </c>
-      <c r="J14" t="s">
-        <v>96</v>
-      </c>
       <c r="K14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" t="s">
         <v>91</v>
       </c>
-      <c r="C15" t="s">
-        <v>91</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>92</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
+        <v>92</v>
+      </c>
+      <c r="G15" t="s">
+        <v>114</v>
+      </c>
+      <c r="H15" t="s">
         <v>93</v>
       </c>
-      <c r="F15" t="s">
-        <v>93</v>
-      </c>
-      <c r="G15" t="s">
-        <v>115</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>94</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>95</v>
       </c>
-      <c r="J15" t="s">
-        <v>96</v>
-      </c>
       <c r="K15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16" t="s">
         <v>91</v>
       </c>
-      <c r="C16" t="s">
-        <v>96</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>92</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
+        <v>92</v>
+      </c>
+      <c r="G16" t="s">
+        <v>114</v>
+      </c>
+      <c r="H16" t="s">
         <v>93</v>
       </c>
-      <c r="F16" t="s">
-        <v>93</v>
-      </c>
-      <c r="G16" t="s">
-        <v>115</v>
-      </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>94</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>95</v>
       </c>
-      <c r="J16" t="s">
-        <v>96</v>
-      </c>
       <c r="K16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" t="s">
         <v>91</v>
       </c>
-      <c r="C17" t="s">
+      <c r="E17" t="s">
+        <v>92</v>
+      </c>
+      <c r="F17" t="s">
+        <v>92</v>
+      </c>
+      <c r="G17" t="s">
+        <v>114</v>
+      </c>
+      <c r="H17" t="s">
+        <v>93</v>
+      </c>
+      <c r="I17" t="s">
+        <v>94</v>
+      </c>
+      <c r="J17" t="s">
         <v>95</v>
       </c>
-      <c r="D17" t="s">
-        <v>92</v>
-      </c>
-      <c r="E17" t="s">
-        <v>93</v>
-      </c>
-      <c r="F17" t="s">
-        <v>93</v>
-      </c>
-      <c r="G17" t="s">
-        <v>115</v>
-      </c>
-      <c r="H17" t="s">
-        <v>94</v>
-      </c>
-      <c r="I17" t="s">
-        <v>95</v>
-      </c>
-      <c r="J17" t="s">
-        <v>96</v>
-      </c>
       <c r="K17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" t="s">
         <v>91</v>
       </c>
-      <c r="C18" t="s">
-        <v>91</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>92</v>
       </c>
-      <c r="E18" t="s">
-        <v>93</v>
-      </c>
       <c r="F18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I18" t="s">
+        <v>94</v>
+      </c>
+      <c r="J18" t="s">
         <v>95</v>
       </c>
-      <c r="J18" t="s">
-        <v>96</v>
-      </c>
       <c r="K18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" t="s">
+        <v>90</v>
+      </c>
+      <c r="D19" t="s">
         <v>91</v>
       </c>
-      <c r="C19" t="s">
-        <v>91</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>92</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
+        <v>92</v>
+      </c>
+      <c r="G19" t="s">
+        <v>114</v>
+      </c>
+      <c r="H19" t="s">
         <v>93</v>
       </c>
-      <c r="F19" t="s">
-        <v>93</v>
-      </c>
-      <c r="G19" t="s">
-        <v>115</v>
-      </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>94</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>95</v>
       </c>
-      <c r="J19" t="s">
-        <v>96</v>
-      </c>
       <c r="K19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C20" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E20" t="s">
+        <v>92</v>
+      </c>
+      <c r="F20" t="s">
+        <v>92</v>
+      </c>
+      <c r="G20" t="s">
+        <v>114</v>
+      </c>
+      <c r="H20" t="s">
+        <v>93</v>
+      </c>
+      <c r="I20" t="s">
+        <v>94</v>
+      </c>
+      <c r="J20" t="s">
         <v>95</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E20" t="s">
-        <v>93</v>
-      </c>
-      <c r="F20" t="s">
-        <v>93</v>
-      </c>
-      <c r="G20" t="s">
-        <v>115</v>
-      </c>
-      <c r="H20" t="s">
-        <v>94</v>
-      </c>
-      <c r="I20" t="s">
-        <v>95</v>
-      </c>
-      <c r="J20" t="s">
-        <v>96</v>
-      </c>
       <c r="K20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C21" t="s">
+        <v>94</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E21" t="s">
+        <v>92</v>
+      </c>
+      <c r="F21" t="s">
+        <v>92</v>
+      </c>
+      <c r="G21" t="s">
+        <v>114</v>
+      </c>
+      <c r="H21" t="s">
+        <v>93</v>
+      </c>
+      <c r="I21" t="s">
+        <v>94</v>
+      </c>
+      <c r="J21" t="s">
         <v>95</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E21" t="s">
-        <v>93</v>
-      </c>
-      <c r="F21" t="s">
-        <v>93</v>
-      </c>
-      <c r="G21" t="s">
-        <v>115</v>
-      </c>
-      <c r="H21" t="s">
-        <v>94</v>
-      </c>
-      <c r="I21" t="s">
-        <v>95</v>
-      </c>
-      <c r="J21" t="s">
-        <v>96</v>
-      </c>
       <c r="K21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" t="s">
         <v>91</v>
       </c>
-      <c r="C22" t="s">
-        <v>91</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>92</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
+        <v>92</v>
+      </c>
+      <c r="G22" t="s">
+        <v>114</v>
+      </c>
+      <c r="H22" t="s">
         <v>93</v>
       </c>
-      <c r="F22" t="s">
-        <v>93</v>
-      </c>
-      <c r="G22" t="s">
-        <v>115</v>
-      </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>94</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>95</v>
       </c>
-      <c r="J22" t="s">
-        <v>96</v>
-      </c>
       <c r="K22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" t="s">
+        <v>90</v>
+      </c>
+      <c r="D23" t="s">
         <v>91</v>
       </c>
-      <c r="C23" t="s">
-        <v>91</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>92</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
+        <v>92</v>
+      </c>
+      <c r="G23" t="s">
+        <v>114</v>
+      </c>
+      <c r="H23" t="s">
         <v>93</v>
       </c>
-      <c r="F23" t="s">
-        <v>93</v>
-      </c>
-      <c r="G23" t="s">
-        <v>115</v>
-      </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>94</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>95</v>
       </c>
-      <c r="J23" t="s">
-        <v>96</v>
-      </c>
       <c r="K23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E24" t="s">
+        <v>92</v>
+      </c>
+      <c r="F24" t="s">
+        <v>92</v>
+      </c>
+      <c r="G24" t="s">
+        <v>114</v>
+      </c>
+      <c r="H24" t="s">
         <v>93</v>
       </c>
-      <c r="F24" t="s">
-        <v>93</v>
-      </c>
-      <c r="G24" t="s">
-        <v>115</v>
-      </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>94</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>95</v>
       </c>
-      <c r="J24" t="s">
-        <v>96</v>
-      </c>
       <c r="K24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D25" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E25" t="s">
+        <v>92</v>
+      </c>
+      <c r="F25" t="s">
+        <v>92</v>
+      </c>
+      <c r="G25" t="s">
+        <v>114</v>
+      </c>
+      <c r="H25" t="s">
         <v>93</v>
       </c>
-      <c r="F25" t="s">
-        <v>93</v>
-      </c>
-      <c r="G25" t="s">
-        <v>115</v>
-      </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>94</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>95</v>
       </c>
-      <c r="J25" t="s">
-        <v>96</v>
-      </c>
       <c r="K25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E26" t="s">
+        <v>92</v>
+      </c>
+      <c r="F26" t="s">
+        <v>92</v>
+      </c>
+      <c r="G26" t="s">
+        <v>114</v>
+      </c>
+      <c r="H26" t="s">
         <v>93</v>
       </c>
-      <c r="F26" t="s">
-        <v>93</v>
-      </c>
-      <c r="G26" t="s">
-        <v>115</v>
-      </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>94</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>95</v>
       </c>
-      <c r="J26" t="s">
-        <v>96</v>
-      </c>
       <c r="K26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E27" t="s">
+        <v>92</v>
+      </c>
+      <c r="F27" t="s">
+        <v>92</v>
+      </c>
+      <c r="G27" t="s">
+        <v>114</v>
+      </c>
+      <c r="H27" t="s">
         <v>93</v>
       </c>
-      <c r="F27" t="s">
-        <v>93</v>
-      </c>
-      <c r="G27" t="s">
-        <v>115</v>
-      </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>94</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>95</v>
       </c>
-      <c r="J27" t="s">
-        <v>96</v>
-      </c>
       <c r="K27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B28" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" t="s">
+        <v>90</v>
+      </c>
+      <c r="D28" t="s">
         <v>91</v>
       </c>
-      <c r="C28" t="s">
-        <v>91</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>92</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
+        <v>92</v>
+      </c>
+      <c r="G28" t="s">
+        <v>114</v>
+      </c>
+      <c r="H28" t="s">
         <v>93</v>
       </c>
-      <c r="F28" t="s">
-        <v>93</v>
-      </c>
-      <c r="G28" t="s">
-        <v>115</v>
-      </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>94</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>95</v>
       </c>
-      <c r="J28" t="s">
-        <v>96</v>
-      </c>
       <c r="K28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B29" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" t="s">
         <v>91</v>
       </c>
-      <c r="C29" t="s">
-        <v>91</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>92</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
+        <v>92</v>
+      </c>
+      <c r="G29" t="s">
+        <v>114</v>
+      </c>
+      <c r="H29" t="s">
         <v>93</v>
       </c>
-      <c r="F29" t="s">
-        <v>93</v>
-      </c>
-      <c r="G29" t="s">
-        <v>115</v>
-      </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>94</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
         <v>95</v>
       </c>
-      <c r="J29" t="s">
-        <v>96</v>
-      </c>
       <c r="K29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B30" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30" t="s">
         <v>91</v>
       </c>
-      <c r="C30" t="s">
-        <v>96</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>92</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
+        <v>92</v>
+      </c>
+      <c r="G30" t="s">
+        <v>114</v>
+      </c>
+      <c r="H30" t="s">
         <v>93</v>
       </c>
-      <c r="F30" t="s">
-        <v>93</v>
-      </c>
-      <c r="G30" t="s">
-        <v>115</v>
-      </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>94</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>95</v>
       </c>
-      <c r="J30" t="s">
-        <v>96</v>
-      </c>
       <c r="K30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B31" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" t="s">
         <v>91</v>
       </c>
-      <c r="C31" t="s">
-        <v>91</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>92</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
+        <v>92</v>
+      </c>
+      <c r="G31" t="s">
+        <v>114</v>
+      </c>
+      <c r="H31" t="s">
         <v>93</v>
       </c>
-      <c r="F31" t="s">
-        <v>93</v>
-      </c>
-      <c r="G31" t="s">
-        <v>115</v>
-      </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>94</v>
       </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>95</v>
       </c>
-      <c r="J31" t="s">
-        <v>96</v>
-      </c>
       <c r="K31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B32" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" t="s">
+        <v>94</v>
+      </c>
+      <c r="D32" t="s">
         <v>91</v>
       </c>
-      <c r="C32" t="s">
+      <c r="E32" t="s">
+        <v>92</v>
+      </c>
+      <c r="F32" t="s">
+        <v>92</v>
+      </c>
+      <c r="G32" t="s">
+        <v>114</v>
+      </c>
+      <c r="H32" t="s">
+        <v>93</v>
+      </c>
+      <c r="I32" t="s">
+        <v>94</v>
+      </c>
+      <c r="J32" t="s">
         <v>95</v>
       </c>
-      <c r="D32" t="s">
-        <v>92</v>
-      </c>
-      <c r="E32" t="s">
-        <v>93</v>
-      </c>
-      <c r="F32" t="s">
-        <v>93</v>
-      </c>
-      <c r="G32" t="s">
-        <v>115</v>
-      </c>
-      <c r="H32" t="s">
-        <v>94</v>
-      </c>
-      <c r="I32" t="s">
-        <v>95</v>
-      </c>
-      <c r="J32" t="s">
-        <v>96</v>
-      </c>
       <c r="K32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C33" t="s">
+        <v>94</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E33" t="s">
+        <v>92</v>
+      </c>
+      <c r="F33" t="s">
+        <v>92</v>
+      </c>
+      <c r="G33" t="s">
+        <v>114</v>
+      </c>
+      <c r="H33" t="s">
+        <v>93</v>
+      </c>
+      <c r="I33" t="s">
+        <v>94</v>
+      </c>
+      <c r="J33" t="s">
         <v>95</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E33" t="s">
-        <v>93</v>
-      </c>
-      <c r="F33" t="s">
-        <v>93</v>
-      </c>
-      <c r="G33" t="s">
-        <v>115</v>
-      </c>
-      <c r="H33" t="s">
-        <v>94</v>
-      </c>
-      <c r="I33" t="s">
-        <v>95</v>
-      </c>
-      <c r="J33" t="s">
-        <v>96</v>
-      </c>
       <c r="K33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/afccp/resources/shared/real/Value_Parameters_Defaults_2023.xlsx
+++ b/afccp/resources/shared/real/Value_Parameters_Defaults_2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/griffenlaird/Desktop/Coding Projects/afccp/afccp/resources/shared/real/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99160771-CEC3-DF40-89BB-7154494C7514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D4ACF16-0A28-9C49-BA1E-50D257943E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="24840" windowHeight="17480" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overall Weights" sheetId="1" r:id="rId1"/>
@@ -780,8 +780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1218,7 +1218,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
@@ -3757,7 +3757,7 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q34" sqref="Q34"/>
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6297,8 +6297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6307,6 +6307,7 @@
     <col min="4" max="4" width="38" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">

--- a/afccp/resources/shared/real/Value_Parameters_Defaults_2023.xlsx
+++ b/afccp/resources/shared/real/Value_Parameters_Defaults_2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/griffenlaird/Desktop/Coding Projects/afccp/afccp/resources/shared/real/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D4ACF16-0A28-9C49-BA1E-50D257943E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E912D21F-F24F-1F47-8D1C-E0664C5DE174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17680" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overall Weights" sheetId="1" r:id="rId1"/>
@@ -21,24 +21,12 @@
     <sheet name="Constraint Type" sheetId="6" r:id="rId6"/>
     <sheet name="Value Functions" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="122">
   <si>
     <t>Cadets Overall</t>
   </si>
@@ -58,6 +46,9 @@
     <t>AFSC Weight Function</t>
   </si>
   <si>
+    <t>Curve_1</t>
+  </si>
+  <si>
     <t>Piece</t>
   </si>
   <si>
@@ -211,6 +202,12 @@
     <t>19, 38</t>
   </si>
   <si>
+    <t>0.35, 5</t>
+  </si>
+  <si>
+    <t>0.2, 0.4</t>
+  </si>
+  <si>
     <t>134, 230</t>
   </si>
   <si>
@@ -226,9 +223,15 @@
     <t>195, 205</t>
   </si>
   <si>
+    <t>0.75, 5</t>
+  </si>
+  <si>
     <t>35, 70</t>
   </si>
   <si>
+    <t>0.65, 5</t>
+  </si>
+  <si>
     <t>25, 60</t>
   </si>
   <si>
@@ -265,12 +268,18 @@
     <t>42, 84</t>
   </si>
   <si>
+    <t>0.8, 5</t>
+  </si>
+  <si>
     <t>18, 20</t>
   </si>
   <si>
     <t>84, 89</t>
   </si>
   <si>
+    <t>0.2, 5</t>
+  </si>
+  <si>
     <t>1, 1</t>
   </si>
   <si>
@@ -286,7 +295,10 @@
     <t>20, 40</t>
   </si>
   <si>
-    <t>63, 126</t>
+    <t>51, 126</t>
+  </si>
+  <si>
+    <t>0.94, 5</t>
   </si>
   <si>
     <t>34, 68</t>
@@ -301,9 +313,6 @@
     <t>69, 138</t>
   </si>
   <si>
-    <t>0.2, 5</t>
-  </si>
-  <si>
     <t>50, 100</t>
   </si>
   <si>
@@ -313,63 +322,66 @@
     <t>Balance|0.15, 0.15, 0.1, 0.08, 0.08, 0.1, 0.6</t>
   </si>
   <si>
+    <t>Quota_Direct|0.07, 0.8, 1.2, 0.8, 0.9, 0.88, 12</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Min Increasing|0.1</t>
+  </si>
+  <si>
+    <t>Min Increasing|0.2</t>
+  </si>
+  <si>
+    <t>Min Decreasing|0.3</t>
+  </si>
+  <si>
+    <t>Min Increasing|0.3</t>
+  </si>
+  <si>
     <t>Quota_Normal|0.2, 0.25, 0.2</t>
   </si>
   <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>Min Increasing|0.2</t>
-  </si>
-  <si>
-    <t>Min Decreasing|0.3</t>
-  </si>
-  <si>
-    <t>Min Increasing|0.3</t>
+    <t>Quota_Direct|0.07, 0.5, 0.6, 0.2, 0.92, 0.95, 150</t>
+  </si>
+  <si>
+    <t>Quota_Direct|0.07, 0.5, 4, 0.2, 0.9, 0.8, 7</t>
   </si>
   <si>
     <t>Min Decreasing|0.2</t>
   </si>
   <si>
-    <t>Quota_Direct|0.07, 0.8, 1.2, 0.8, 0.9, 0.88, 12</t>
-  </si>
-  <si>
-    <t>Quota_Direct|0.07, 0.5, 4, 0.2, 0.9, 0.8, 7</t>
-  </si>
-  <si>
-    <t>Quota_Direct|0.07, 0.5, 0.6, 0.2, 0.92, 0.95, 150</t>
-  </si>
-  <si>
     <t>Quota_Direct|0.07, 0.5, 0.8, 0.2, 0.9, 0.9, 195</t>
   </si>
   <si>
     <t>Quota_Direct|0.07, 0.8, 0.4, 0.3, 0.9, 0.95, 50</t>
   </si>
   <si>
+    <t>Quota_Direct|0.07, 0.8, 0.4, 0.3, 0.9, 0.95, 60</t>
+  </si>
+  <si>
+    <t>Quota_Direct|0.07, 0.5, 0.8, 0.2, 0.9, 0.9, 181</t>
+  </si>
+  <si>
+    <t>Quota_Direct|0.07, 0.5, 0.8, 0.2, 0.9, 0.9, 84</t>
+  </si>
+  <si>
+    <t>Quota_Direct|0.07, 0.5, 0.8, 0.2, 0.9, 0.9, 61</t>
+  </si>
+  <si>
+    <t>Quota_Direct|0.07, 0.5, 0.8, 0.2, 0.9, 0.9, 29</t>
+  </si>
+  <si>
+    <t>Quota_Direct|0.07, 0.8, 0.4, 0.3, 0.9, 0.95, 9</t>
+  </si>
+  <si>
+    <t>Quota_Direct|0.07, 0.5, 0.8, 0.2, 0.9, 0.9, 18</t>
+  </si>
+  <si>
     <t>Quota_Direct|0.07, 0.8, 0.4, 0.3, 0.9, 0.95, 35</t>
   </si>
   <si>
-    <t>Quota_Direct|0.07, 0.8, 0.4, 0.3, 0.9, 0.95, 60</t>
-  </si>
-  <si>
-    <t>Quota_Direct|0.07, 0.5, 0.8, 0.2, 0.9, 0.9, 181</t>
-  </si>
-  <si>
-    <t>Quota_Direct|0.07, 0.5, 0.8, 0.2, 0.9, 0.9, 84</t>
-  </si>
-  <si>
-    <t>Quota_Direct|0.07, 0.5, 0.8, 0.2, 0.9, 0.9, 61</t>
-  </si>
-  <si>
-    <t>Quota_Direct|0.07, 0.5, 0.8, 0.2, 0.9, 0.9, 29</t>
-  </si>
-  <si>
-    <t>Quota_Direct|0.07, 0.8, 0.4, 0.3, 0.9, 0.95, 9</t>
-  </si>
-  <si>
-    <t>Quota_Direct|0.07, 0.5, 0.8, 0.2, 0.9, 0.9, 18</t>
-  </si>
-  <si>
     <t>Quota_Direct|0.07, 0.8, 0.4, 0.3, 0.9, 0.95, 28</t>
   </si>
   <si>
@@ -380,34 +392,13 @@
   </si>
   <si>
     <t>Quota_Direct|0.07, 0.5, 0.8, 0.2, 0.9, 0.9, 34</t>
-  </si>
-  <si>
-    <t>Min Increasing|0.1</t>
-  </si>
-  <si>
-    <t>0.2, 0.4</t>
-  </si>
-  <si>
-    <t>0.35, 5</t>
-  </si>
-  <si>
-    <t>0.75, 5</t>
-  </si>
-  <si>
-    <t>0.65, 5</t>
-  </si>
-  <si>
-    <t>0.8, 5</t>
-  </si>
-  <si>
-    <t>Curve_1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -420,19 +411,6 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -470,12 +448,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -780,13 +757,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -825,10 +801,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>120</v>
+        <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -841,28 +817,28 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2">
-        <v>55.49</v>
+        <v>55.48</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -870,10 +846,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3">
-        <v>55.49</v>
+        <v>55.48</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -881,7 +857,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <v>88.82</v>
@@ -892,10 +868,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5">
-        <v>55.49</v>
+        <v>55.48</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -903,7 +879,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6">
         <v>100</v>
@@ -914,7 +890,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7">
         <v>66.67</v>
@@ -925,7 +901,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8">
         <v>66.67</v>
@@ -936,7 +912,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9">
         <v>100</v>
@@ -947,7 +923,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10">
         <v>77.64</v>
@@ -958,7 +934,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11">
         <v>66.67</v>
@@ -969,7 +945,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12">
         <v>77.64</v>
@@ -980,7 +956,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13">
         <v>66.67</v>
@@ -991,10 +967,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14">
-        <v>55.49</v>
+        <v>55.48</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1002,10 +978,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15">
-        <v>55.49</v>
+        <v>55.48</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1013,10 +989,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16">
-        <v>55.49</v>
+        <v>55.48</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1024,10 +1000,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17">
-        <v>55.49</v>
+        <v>55.48</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1035,7 +1011,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18">
         <v>66.67</v>
@@ -1046,10 +1022,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19">
-        <v>55.49</v>
+        <v>55.48</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1057,10 +1033,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B20">
-        <v>55.49</v>
+        <v>55.48</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1068,7 +1044,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B21">
         <v>77.64</v>
@@ -1079,10 +1055,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B22">
-        <v>55.49</v>
+        <v>55.48</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1090,10 +1066,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B23">
-        <v>55.49</v>
+        <v>55.48</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1101,10 +1077,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B24">
-        <v>55.49</v>
+        <v>55.48</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1112,10 +1088,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B25">
-        <v>55.49</v>
+        <v>55.48</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1123,10 +1099,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B26">
-        <v>55.49</v>
+        <v>55.48</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1134,7 +1110,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B27">
         <v>77.64</v>
@@ -1145,7 +1121,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B28">
         <v>66.67</v>
@@ -1156,10 +1132,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B29">
-        <v>55.49</v>
+        <v>55.48</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1167,10 +1143,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B30">
-        <v>55.49</v>
+        <v>55.48</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -1178,7 +1154,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B31">
         <v>77.64</v>
@@ -1189,7 +1165,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B32">
         <v>77.64</v>
@@ -1200,7 +1176,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B33">
         <v>66.67</v>
@@ -1218,53 +1194,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1302,7 +1278,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1340,7 +1316,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <v>30.00000086999999</v>
@@ -1378,7 +1354,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1416,7 +1392,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6">
         <v>30</v>
@@ -1454,7 +1430,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1492,7 +1468,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1530,7 +1506,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9">
         <v>30</v>
@@ -1568,7 +1544,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10">
         <v>29.999999729999999</v>
@@ -1606,7 +1582,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1644,7 +1620,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12">
         <v>29.999999729999999</v>
@@ -1682,7 +1658,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1720,7 +1696,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1758,7 +1734,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1796,7 +1772,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1834,7 +1810,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1872,7 +1848,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18">
         <v>30.000000300000011</v>
@@ -1910,7 +1886,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1948,7 +1924,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -1986,10 +1962,10 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B21">
-        <v>30</v>
+        <v>30.000000300000011</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -2004,16 +1980,16 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>70</v>
+        <v>69.999999700000004</v>
       </c>
       <c r="H21">
-        <v>30</v>
+        <v>30.000000300000011</v>
       </c>
       <c r="I21">
-        <v>20</v>
+        <v>20.00000120000001</v>
       </c>
       <c r="J21">
-        <v>50</v>
+        <v>50.00000150000001</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2024,7 +2000,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -2045,7 +2021,7 @@
         <v>90.000002080000016</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I22">
         <v>20.000001040000011</v>
@@ -2062,7 +2038,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -2100,7 +2076,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -2138,7 +2114,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -2176,7 +2152,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -2214,10 +2190,10 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B27">
-        <v>20</v>
+        <v>20.000000530000001</v>
       </c>
       <c r="C27">
         <v>5</v>
@@ -2232,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>89.999999279999997</v>
+        <v>89.999999734999989</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -2241,7 +2217,7 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>49.999998800000007</v>
+        <v>50.000001324999999</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2252,7 +2228,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -2290,7 +2266,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -2328,7 +2304,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -2366,7 +2342,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B31">
         <v>30.000000300000011</v>
@@ -2404,10 +2380,10 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B32">
-        <v>29.999999729999999</v>
+        <v>30</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -2425,13 +2401,13 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>50.000001349999998</v>
+        <v>50</v>
       </c>
       <c r="I32">
-        <v>19.999998919999999</v>
+        <v>20</v>
       </c>
       <c r="J32">
-        <v>50.000001349999998</v>
+        <v>50</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -2442,7 +2418,7 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -2488,52 +2464,52 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="J2" sqref="J2:J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>0.50095019880045821</v>
@@ -2571,7 +2547,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>0.50095019880045821</v>
@@ -2609,16 +2585,16 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4">
-        <v>0.50000171807800331</v>
+        <v>0.50000164487211118</v>
       </c>
       <c r="C4">
-        <v>0.28192371475953559</v>
+        <v>0.25714285714285712</v>
       </c>
       <c r="D4">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -2647,7 +2623,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>0.50095019880045821</v>
@@ -2685,13 +2661,13 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6">
-        <v>0.50000171807800331</v>
+        <v>0.50000164487211118</v>
       </c>
       <c r="C6">
-        <v>0.28192371475953559</v>
+        <v>0.25714285714285712</v>
       </c>
       <c r="D6">
         <v>195</v>
@@ -2723,7 +2699,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7">
         <v>0.50095019880045821</v>
@@ -2761,7 +2737,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8">
         <v>0.50095019880045821</v>
@@ -2799,13 +2775,13 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9">
-        <v>0.50000171807800331</v>
+        <v>0.50000164487211118</v>
       </c>
       <c r="C9">
-        <v>0.28192371475953559</v>
+        <v>0.25714285714285712</v>
       </c>
       <c r="D9">
         <v>181</v>
@@ -2837,13 +2813,13 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10">
-        <v>0.50000171807800331</v>
+        <v>0.50000164487211118</v>
       </c>
       <c r="C10">
-        <v>0.28192371475953559</v>
+        <v>0.25714285714285712</v>
       </c>
       <c r="D10">
         <v>84</v>
@@ -2875,7 +2851,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11">
         <v>0.50095019880045821</v>
@@ -2913,13 +2889,13 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12">
-        <v>0.50000171807800331</v>
+        <v>0.50000164487211118</v>
       </c>
       <c r="C12">
-        <v>0.28192371475953559</v>
+        <v>0.25714285714285712</v>
       </c>
       <c r="D12">
         <v>61</v>
@@ -2951,7 +2927,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13">
         <v>0.50095019880045821</v>
@@ -2989,7 +2965,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14">
         <v>0.50095019880045821</v>
@@ -3027,7 +3003,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15">
         <v>0.50095019880045821</v>
@@ -3065,7 +3041,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16">
         <v>0.50095019880045821</v>
@@ -3103,7 +3079,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17">
         <v>0.50095019880045821</v>
@@ -3141,13 +3117,13 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18">
-        <v>0.50000171807800331</v>
+        <v>0.50000164487211118</v>
       </c>
       <c r="C18">
-        <v>0.28192371475953559</v>
+        <v>0.25714285714285712</v>
       </c>
       <c r="D18">
         <v>42</v>
@@ -3179,7 +3155,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19">
         <v>0.50095019880045821</v>
@@ -3217,7 +3193,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B20">
         <v>0.50095019880045821</v>
@@ -3255,10 +3231,10 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B21">
-        <v>0.50000171807800331</v>
+        <v>0.50000164487211118</v>
       </c>
       <c r="C21">
         <v>0.28192371475953559</v>
@@ -3293,7 +3269,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B22">
         <v>0.50095019880045821</v>
@@ -3314,10 +3290,10 @@
         <v>0.6</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="I22">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="J22">
         <v>1</v>
@@ -3331,7 +3307,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B23">
         <v>0.50095019880045821</v>
@@ -3369,7 +3345,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B24">
         <v>0.50095019880045821</v>
@@ -3407,7 +3383,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B25">
         <v>0.50095019880045821</v>
@@ -3445,7 +3421,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B26">
         <v>0.50095019880045821</v>
@@ -3483,16 +3459,16 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B27">
-        <v>0.50095019880045821</v>
+        <v>0.50000164487211118</v>
       </c>
       <c r="C27">
-        <v>0.32542624166048922</v>
+        <v>0.25714285714285712</v>
       </c>
       <c r="D27">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -3521,7 +3497,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B28">
         <v>0.50095019880045821</v>
@@ -3559,7 +3535,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B29">
         <v>0.50095019880045821</v>
@@ -3597,7 +3573,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B30">
         <v>0.50095019880045821</v>
@@ -3635,13 +3611,13 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B31">
-        <v>0.50000171807800331</v>
+        <v>0.50000164487211118</v>
       </c>
       <c r="C31">
-        <v>0.28192371475953559</v>
+        <v>0.25714285714285712</v>
       </c>
       <c r="D31">
         <v>69</v>
@@ -3673,10 +3649,10 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B32">
-        <v>0.50000171807800331</v>
+        <v>0.50000164487211118</v>
       </c>
       <c r="C32">
         <v>0.28192371475953559</v>
@@ -3711,7 +3687,7 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B33">
         <v>0.50095019880045821</v>
@@ -3757,1263 +3733,1263 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" t="s">
+        <v>54</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>54</v>
       </c>
       <c r="H3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>116</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>115</v>
+        <v>59</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" t="s">
+        <v>54</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>116</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>115</v>
+        <v>59</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G6" t="s">
-        <v>117</v>
+        <v>65</v>
       </c>
       <c r="H6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" t="s">
+        <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G7" t="s">
-        <v>118</v>
+        <v>67</v>
       </c>
       <c r="H7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" t="s">
+        <v>54</v>
       </c>
       <c r="D8" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G8" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="H8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>116</v>
+        <v>58</v>
       </c>
       <c r="C9" t="s">
-        <v>115</v>
+        <v>59</v>
       </c>
       <c r="D9" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G9" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>116</v>
+        <v>58</v>
       </c>
       <c r="C10" t="s">
-        <v>115</v>
+        <v>59</v>
       </c>
       <c r="D10" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F10" t="s">
-        <v>53</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
+        <v>54</v>
+      </c>
+      <c r="G10" t="s">
+        <v>54</v>
       </c>
       <c r="H10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" t="s">
+        <v>54</v>
       </c>
       <c r="D11" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F11" t="s">
-        <v>53</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
+        <v>54</v>
+      </c>
+      <c r="G11" t="s">
+        <v>54</v>
       </c>
       <c r="H11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>116</v>
+        <v>58</v>
       </c>
       <c r="C12" t="s">
-        <v>115</v>
+        <v>59</v>
       </c>
       <c r="D12" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F12" t="s">
-        <v>53</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
+        <v>54</v>
+      </c>
+      <c r="G12" t="s">
+        <v>54</v>
       </c>
       <c r="H12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" t="s">
+        <v>54</v>
       </c>
       <c r="D13" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F13" t="s">
-        <v>53</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
+        <v>54</v>
+      </c>
+      <c r="G13" t="s">
+        <v>54</v>
       </c>
       <c r="H13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" t="s">
+        <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G14" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="H14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" t="s">
+        <v>54</v>
       </c>
       <c r="D15" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G15" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="H15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" t="s">
+        <v>54</v>
       </c>
       <c r="D16" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G16" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="H16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
+        <v>26</v>
+      </c>
+      <c r="B17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" t="s">
+        <v>54</v>
       </c>
       <c r="D17" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G17" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="H17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>116</v>
+        <v>58</v>
       </c>
       <c r="C18" t="s">
-        <v>115</v>
+        <v>59</v>
       </c>
       <c r="D18" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G18" t="s">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="H18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
+        <v>28</v>
+      </c>
+      <c r="B19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" t="s">
+        <v>54</v>
       </c>
       <c r="D19" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G19" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="H19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
+        <v>29</v>
+      </c>
+      <c r="B20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" t="s">
+        <v>54</v>
       </c>
       <c r="D20" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="E20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G20" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>116</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
+        <v>58</v>
+      </c>
+      <c r="C21" t="s">
+        <v>54</v>
       </c>
       <c r="D21" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G21" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="B22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" t="s">
+        <v>54</v>
       </c>
       <c r="D22" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="E22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G22" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="H22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
+        <v>32</v>
+      </c>
+      <c r="B23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" t="s">
+        <v>54</v>
       </c>
       <c r="D23" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="E23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G23" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="H23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
+        <v>33</v>
+      </c>
+      <c r="B24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" t="s">
+        <v>54</v>
       </c>
       <c r="D24" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G24" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="H24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
+        <v>34</v>
+      </c>
+      <c r="B25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" t="s">
+        <v>54</v>
       </c>
       <c r="D25" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="E25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G25" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="H25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="B26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" t="s">
+        <v>54</v>
       </c>
       <c r="D26" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="E26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G26" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="H26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
+        <v>36</v>
+      </c>
+      <c r="B27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" t="s">
+        <v>54</v>
       </c>
       <c r="D27" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="E27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G27" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="H27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
+        <v>37</v>
+      </c>
+      <c r="B28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" t="s">
+        <v>54</v>
       </c>
       <c r="D28" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G28" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="H28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>37</v>
-      </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
+        <v>38</v>
+      </c>
+      <c r="B29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" t="s">
+        <v>54</v>
       </c>
       <c r="D29" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G29" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="H29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
+        <v>39</v>
+      </c>
+      <c r="B30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" t="s">
+        <v>54</v>
       </c>
       <c r="D30" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="E30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G30" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="H30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B31" t="s">
-        <v>116</v>
+        <v>58</v>
       </c>
       <c r="C31" t="s">
-        <v>115</v>
+        <v>59</v>
       </c>
       <c r="D31" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G31" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B32" t="s">
-        <v>116</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
+        <v>58</v>
+      </c>
+      <c r="C32" t="s">
+        <v>54</v>
       </c>
       <c r="D32" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="E32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F32" t="s">
-        <v>53</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
+        <v>54</v>
+      </c>
+      <c r="G32" t="s">
+        <v>54</v>
       </c>
       <c r="H32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>41</v>
-      </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
+        <v>42</v>
+      </c>
+      <c r="B33" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" t="s">
+        <v>54</v>
       </c>
       <c r="D33" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="E33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F33" t="s">
-        <v>53</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
+        <v>54</v>
+      </c>
+      <c r="G33" t="s">
+        <v>54</v>
       </c>
       <c r="H33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -5026,55 +5002,52 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P38" sqref="P38"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="15.1640625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -5112,7 +5085,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -5150,7 +5123,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -5188,7 +5161,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -5226,7 +5199,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -5264,7 +5237,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -5302,7 +5275,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -5340,7 +5313,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -5378,7 +5351,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10">
         <v>4</v>
@@ -5416,7 +5389,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -5454,7 +5427,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12">
         <v>4</v>
@@ -5492,7 +5465,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -5530,7 +5503,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -5568,7 +5541,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -5606,7 +5579,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -5644,7 +5617,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -5682,7 +5655,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18">
         <v>4</v>
@@ -5720,7 +5693,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -5758,7 +5731,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -5796,7 +5769,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B21">
         <v>4</v>
@@ -5834,7 +5807,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -5872,7 +5845,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -5910,7 +5883,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -5948,7 +5921,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -5986,7 +5959,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -6024,7 +5997,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -6062,7 +6035,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -6100,7 +6073,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -6138,7 +6111,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -6176,7 +6149,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B31">
         <v>4</v>
@@ -6214,7 +6187,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B32">
         <v>4</v>
@@ -6252,7 +6225,7 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -6297,1275 +6270,1265 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C2" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E2" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F2" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="G2" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="H2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="I2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="J2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="K2" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="L2" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C3" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D3" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="E3" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F3" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="G3" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="H3" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="I3" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="J3" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="K3" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="L3" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C4" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E4" t="s">
         <v>99</v>
       </c>
-      <c r="E4" t="s">
-        <v>92</v>
-      </c>
       <c r="F4" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="G4" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="H4" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="I4" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="J4" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="K4" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="L4" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C5" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D5" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="E5" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F5" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="G5" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="H5" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="I5" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="J5" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="K5" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="L5" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C6" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G6" t="s">
         <v>100</v>
       </c>
-      <c r="E6" t="s">
-        <v>92</v>
-      </c>
-      <c r="F6" t="s">
-        <v>92</v>
-      </c>
-      <c r="G6" t="s">
-        <v>114</v>
-      </c>
       <c r="H6" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="I6" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="J6" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="K6" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="L6" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C7" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D7" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E7" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F7" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="G7" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="H7" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="I7" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="J7" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="K7" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="L7" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D8" t="s">
+        <v>110</v>
+      </c>
+      <c r="E8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H8" t="s">
+        <v>101</v>
+      </c>
+      <c r="I8" t="s">
+        <v>102</v>
+      </c>
+      <c r="J8" t="s">
         <v>103</v>
       </c>
-      <c r="E8" t="s">
-        <v>92</v>
-      </c>
-      <c r="F8" t="s">
-        <v>92</v>
-      </c>
-      <c r="G8" t="s">
-        <v>114</v>
-      </c>
-      <c r="H8" t="s">
-        <v>93</v>
-      </c>
-      <c r="I8" t="s">
-        <v>94</v>
-      </c>
-      <c r="J8" t="s">
-        <v>95</v>
-      </c>
       <c r="K8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="L8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C9" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D9" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="E9" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F9" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="G9" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="H9" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="I9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="J9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="K9" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="L9" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
+      </c>
+      <c r="D10" t="s">
+        <v>112</v>
       </c>
       <c r="E10" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F10" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="G10" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="H10" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="I10" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="J10" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="K10" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="L10" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C11" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D11" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="E11" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F11" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="G11" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="H11" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="I11" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="J11" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="K11" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="L11" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C12" t="s">
-        <v>90</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>106</v>
+        <v>97</v>
+      </c>
+      <c r="D12" t="s">
+        <v>113</v>
       </c>
       <c r="E12" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F12" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="G12" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="H12" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="I12" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="J12" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="K12" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="L12" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C13" t="s">
-        <v>90</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>107</v>
+        <v>97</v>
+      </c>
+      <c r="D13" t="s">
+        <v>114</v>
       </c>
       <c r="E13" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F13" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="G13" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="H13" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="I13" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="J13" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="K13" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="L13" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C14" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="D14" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E14" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F14" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="G14" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="H14" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="I14" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="J14" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="K14" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="L14" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C15" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D15" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="E15" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F15" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="G15" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="H15" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="I15" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="J15" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="K15" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="L15" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C16" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="D16" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="E16" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F16" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="G16" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="H16" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="I16" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="J16" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="K16" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="L16" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C17" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="D17" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="E17" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F17" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="G17" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="H17" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="I17" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="J17" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="K17" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="L17" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C18" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D18" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="E18" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F18" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="G18" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="H18" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="I18" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="J18" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="K18" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="L18" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C19" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D19" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="E19" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F19" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="G19" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="H19" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="I19" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="J19" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="K19" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="L19" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C20" t="s">
-        <v>94</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
+      </c>
+      <c r="D20" t="s">
+        <v>116</v>
       </c>
       <c r="E20" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F20" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="G20" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="H20" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="I20" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="J20" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="K20" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="L20" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C21" t="s">
-        <v>94</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
+      </c>
+      <c r="D21" t="s">
+        <v>112</v>
       </c>
       <c r="E21" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F21" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="G21" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="H21" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="I21" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="J21" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="K21" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="L21" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C22" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D22" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="E22" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F22" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="G22" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="H22" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="I22" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="J22" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="K22" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="L22" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C23" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D23" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="E23" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F23" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="G23" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="H23" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="I23" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="J23" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="K23" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="L23" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C24" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D24" t="s">
+        <v>117</v>
+      </c>
+      <c r="E24" t="s">
+        <v>99</v>
+      </c>
+      <c r="F24" t="s">
+        <v>99</v>
+      </c>
+      <c r="G24" t="s">
+        <v>100</v>
+      </c>
+      <c r="H24" t="s">
+        <v>101</v>
+      </c>
+      <c r="I24" t="s">
         <v>102</v>
       </c>
-      <c r="E24" t="s">
-        <v>92</v>
-      </c>
-      <c r="F24" t="s">
-        <v>92</v>
-      </c>
-      <c r="G24" t="s">
-        <v>114</v>
-      </c>
-      <c r="H24" t="s">
-        <v>93</v>
-      </c>
-      <c r="I24" t="s">
-        <v>94</v>
-      </c>
       <c r="J24" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="K24" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="L24" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B25" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C25" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D25" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="E25" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F25" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="G25" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="H25" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="I25" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="J25" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="K25" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="L25" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C26" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D26" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="E26" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F26" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="G26" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="H26" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="I26" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="J26" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="K26" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="L26" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B27" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C27" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D27" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E27" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F27" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="G27" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="H27" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="I27" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="J27" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="K27" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="L27" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B28" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C28" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D28" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="E28" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F28" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="G28" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="H28" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="I28" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="J28" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="K28" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="L28" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B29" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C29" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D29" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="E29" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F29" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="G29" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="H29" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="I29" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="J29" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="K29" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="L29" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B30" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C30" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="D30" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="E30" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F30" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="G30" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="H30" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="I30" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="J30" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="K30" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="L30" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B31" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C31" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D31" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="E31" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F31" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="G31" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="H31" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="I31" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="J31" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="K31" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="L31" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B32" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C32" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="D32" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="E32" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F32" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="G32" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="H32" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="I32" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="J32" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="K32" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="L32" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B33" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C33" t="s">
-        <v>94</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>113</v>
+        <v>102</v>
+      </c>
+      <c r="D33" t="s">
+        <v>121</v>
       </c>
       <c r="E33" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F33" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="G33" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="H33" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="I33" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="J33" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="K33" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="L33" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/afccp/resources/shared/real/Value_Parameters_Defaults_2023.xlsx
+++ b/afccp/resources/shared/real/Value_Parameters_Defaults_2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/griffenlaird/Desktop/Coding Projects/afccp/afccp/resources/shared/real/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E912D21F-F24F-1F47-8D1C-E0664C5DE174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D5899C3-B399-3A4D-B3EF-86D3119B052F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17680" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28820" yWindow="-21100" windowWidth="38400" windowHeight="21100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overall Weights" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,24 @@
     <sheet name="Constraint Type" sheetId="6" r:id="rId6"/>
     <sheet name="Value Functions" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="149">
   <si>
     <t>Cadets Overall</t>
   </si>
@@ -49,7 +61,7 @@
     <t>Curve_1</t>
   </si>
   <si>
-    <t>Piece</t>
+    <t>Custom</t>
   </si>
   <si>
     <t>AFSC</t>
@@ -190,142 +202,160 @@
     <t>Minority</t>
   </si>
   <si>
+    <t>0.35, 5</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
-    <t>8, 16</t>
+    <t>10, 14</t>
   </si>
   <si>
     <t>0.9, 5</t>
   </si>
   <si>
-    <t>19, 38</t>
-  </si>
-  <si>
-    <t>0.35, 5</t>
-  </si>
-  <si>
-    <t>0.2, 0.4</t>
-  </si>
-  <si>
-    <t>134, 230</t>
-  </si>
-  <si>
     <t>0.1, 5</t>
   </si>
   <si>
+    <t>19, 27</t>
+  </si>
+  <si>
+    <t>0.8, 5</t>
+  </si>
+  <si>
+    <t>0.4, 5</t>
+  </si>
+  <si>
+    <t>0.15, 0.4</t>
+  </si>
+  <si>
+    <t>169, 210</t>
+  </si>
+  <si>
+    <t>0.5, 5</t>
+  </si>
+  <si>
     <t>7, 8</t>
   </si>
   <si>
     <t>0.7, 5</t>
   </si>
   <si>
-    <t>195, 205</t>
+    <t>0, 0.15</t>
+  </si>
+  <si>
+    <t>195, 210</t>
   </si>
   <si>
     <t>0.75, 5</t>
   </si>
   <si>
-    <t>35, 70</t>
+    <t>0.2, 5</t>
+  </si>
+  <si>
+    <t>60, 73</t>
   </si>
   <si>
     <t>0.65, 5</t>
   </si>
   <si>
-    <t>25, 60</t>
+    <t>0, 0.25</t>
+  </si>
+  <si>
+    <t>0, 0.1</t>
+  </si>
+  <si>
+    <t>25, 50</t>
   </si>
   <si>
     <t>0.6, 5</t>
   </si>
   <si>
-    <t>181, 195</t>
-  </si>
-  <si>
-    <t>84, 90</t>
-  </si>
-  <si>
-    <t>29, 58</t>
-  </si>
-  <si>
-    <t>61, 65</t>
-  </si>
-  <si>
-    <t>29, 31</t>
-  </si>
-  <si>
-    <t>3, 9</t>
+    <t>181, 193</t>
+  </si>
+  <si>
+    <t>0, 0.2</t>
+  </si>
+  <si>
+    <t>84, 92</t>
+  </si>
+  <si>
+    <t>0.85, 5</t>
+  </si>
+  <si>
+    <t>29, 38</t>
+  </si>
+  <si>
+    <t>61, 67</t>
+  </si>
+  <si>
+    <t>29, 35</t>
+  </si>
+  <si>
+    <t>3, 6</t>
   </si>
   <si>
     <t>1, 5</t>
   </si>
   <si>
-    <t>7, 14</t>
-  </si>
-  <si>
-    <t>3, 6</t>
-  </si>
-  <si>
-    <t>42, 84</t>
-  </si>
-  <si>
-    <t>0.8, 5</t>
-  </si>
-  <si>
-    <t>18, 20</t>
-  </si>
-  <si>
-    <t>84, 89</t>
-  </si>
-  <si>
-    <t>0.2, 5</t>
+    <t>7, 10</t>
+  </si>
+  <si>
+    <t>3, 5</t>
+  </si>
+  <si>
+    <t>42, 60</t>
+  </si>
+  <si>
+    <t>18, 22</t>
   </si>
   <si>
     <t>1, 1</t>
   </si>
   <si>
+    <t>0.3, 5</t>
+  </si>
+  <si>
     <t>13, 14</t>
   </si>
   <si>
-    <t>15, 35</t>
-  </si>
-  <si>
-    <t>12, 28</t>
-  </si>
-  <si>
-    <t>20, 40</t>
-  </si>
-  <si>
-    <t>51, 126</t>
+    <t>15, 30</t>
+  </si>
+  <si>
+    <t>12, 24</t>
+  </si>
+  <si>
+    <t>24, 40</t>
+  </si>
+  <si>
+    <t>53, 126</t>
   </si>
   <si>
     <t>0.94, 5</t>
   </si>
   <si>
-    <t>34, 68</t>
-  </si>
-  <si>
-    <t>12, 24</t>
+    <t>34, 48</t>
   </si>
   <si>
     <t>2, 4</t>
   </si>
   <si>
-    <t>69, 138</t>
-  </si>
-  <si>
-    <t>50, 100</t>
-  </si>
-  <si>
-    <t>34, 36</t>
+    <t>69, 85</t>
+  </si>
+  <si>
+    <t>50, 75</t>
+  </si>
+  <si>
+    <t>34, 37</t>
+  </si>
+  <si>
+    <t>Min Increasing|-0.3</t>
   </si>
   <si>
     <t>Balance|0.15, 0.15, 0.1, 0.08, 0.08, 0.1, 0.6</t>
   </si>
   <si>
-    <t>Quota_Direct|0.07, 0.8, 1.2, 0.8, 0.9, 0.88, 12</t>
-  </si>
-  <si>
-    <t>None</t>
+    <t>Quota_Direct|0.07, 0.8, 1.2, 0.8, 0.9, 0.88, 14</t>
   </si>
   <si>
     <t>Min Increasing|0.1</t>
@@ -343,7 +373,7 @@
     <t>Quota_Normal|0.2, 0.25, 0.2</t>
   </si>
   <si>
-    <t>Quota_Direct|0.07, 0.5, 0.6, 0.2, 0.92, 0.95, 150</t>
+    <t>Quota_Direct|0.07, 1.5, 1, 0.2, 0.7, 0.99, 175</t>
   </si>
   <si>
     <t>Quota_Direct|0.07, 0.5, 4, 0.2, 0.9, 0.8, 7</t>
@@ -352,10 +382,7 @@
     <t>Min Decreasing|0.2</t>
   </si>
   <si>
-    <t>Quota_Direct|0.07, 0.5, 0.8, 0.2, 0.9, 0.9, 195</t>
-  </si>
-  <si>
-    <t>Quota_Direct|0.07, 0.8, 0.4, 0.3, 0.9, 0.95, 50</t>
+    <t>Quota_Direct|0.07, 0.5, 0.8, 0.2, 0.9, 0.75, 195</t>
   </si>
   <si>
     <t>Quota_Direct|0.07, 0.8, 0.4, 0.3, 0.9, 0.95, 60</t>
@@ -392,13 +419,79 @@
   </si>
   <si>
     <t>Quota_Direct|0.07, 0.5, 0.8, 0.2, 0.9, 0.9, 34</t>
+  </si>
+  <si>
+    <t>USAFA-Constrained AFSCs</t>
+  </si>
+  <si>
+    <t>Similarity Constraint</t>
+  </si>
+  <si>
+    <t>35P, 38F, 64P, 65F</t>
+  </si>
+  <si>
+    <t>Quota_Direct|0.07, 0.4, 0.5, 1, 0.6, 1, 72</t>
+  </si>
+  <si>
+    <t>Quota_Direct|0.07, 0.8, 0.4, 0.5, 0.8, 0.5, 95</t>
+  </si>
+  <si>
+    <t>Min Increasing|0.12</t>
+  </si>
+  <si>
+    <t>Min Increasing|0.11</t>
+  </si>
+  <si>
+    <t>Min Increasing|0.10</t>
+  </si>
+  <si>
+    <t>Min Increasing|0.9</t>
+  </si>
+  <si>
+    <t>Min Increasing|0.8</t>
+  </si>
+  <si>
+    <t>Min Increasing|0.7</t>
+  </si>
+  <si>
+    <t>Min Increasing|0.6</t>
+  </si>
+  <si>
+    <t>Min Increasing|0.5</t>
+  </si>
+  <si>
+    <t>Min Increasing|0.4</t>
+  </si>
+  <si>
+    <t>Min Increasing|0.0</t>
+  </si>
+  <si>
+    <t>Min Increasing|0.13</t>
+  </si>
+  <si>
+    <t>Min Increasing|0.14</t>
+  </si>
+  <si>
+    <t>Min Increasing|0.15</t>
+  </si>
+  <si>
+    <t>Min Increasing|0.16</t>
+  </si>
+  <si>
+    <t>Min Increasing|0.17</t>
+  </si>
+  <si>
+    <t>Min Increasing|0.18</t>
+  </si>
+  <si>
+    <t>Min Increasing|0.19</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -411,6 +504,12 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -755,19 +854,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -786,13 +881,19 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>0.6</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="B2">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -805,6 +906,9 @@
       </c>
       <c r="F2" t="s">
         <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -816,9 +920,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -838,7 +940,7 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <v>55.48</v>
+        <v>6.42</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -849,7 +951,7 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>55.48</v>
+        <v>6.44</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -860,7 +962,7 @@
         <v>13</v>
       </c>
       <c r="B4">
-        <v>88.82</v>
+        <v>100</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -871,7 +973,7 @@
         <v>14</v>
       </c>
       <c r="B5">
-        <v>55.48</v>
+        <v>6.42</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -882,7 +984,7 @@
         <v>15</v>
       </c>
       <c r="B6">
-        <v>100</v>
+        <v>83.33</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -893,7 +995,7 @@
         <v>16</v>
       </c>
       <c r="B7">
-        <v>66.67</v>
+        <v>20</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -904,7 +1006,7 @@
         <v>17</v>
       </c>
       <c r="B8">
-        <v>66.67</v>
+        <v>6.46</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -915,7 +1017,7 @@
         <v>18</v>
       </c>
       <c r="B9">
-        <v>100</v>
+        <v>83.32</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -926,7 +1028,7 @@
         <v>19</v>
       </c>
       <c r="B10">
-        <v>77.64</v>
+        <v>21.82</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -937,7 +1039,7 @@
         <v>20</v>
       </c>
       <c r="B11">
-        <v>66.67</v>
+        <v>30</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -948,7 +1050,7 @@
         <v>21</v>
       </c>
       <c r="B12">
-        <v>77.64</v>
+        <v>8.19</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -959,7 +1061,7 @@
         <v>22</v>
       </c>
       <c r="B13">
-        <v>66.67</v>
+        <v>6.48</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -970,7 +1072,7 @@
         <v>23</v>
       </c>
       <c r="B14">
-        <v>55.48</v>
+        <v>6.41</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -981,7 +1083,7 @@
         <v>24</v>
       </c>
       <c r="B15">
-        <v>55.48</v>
+        <v>6.42</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -992,7 +1094,7 @@
         <v>25</v>
       </c>
       <c r="B16">
-        <v>55.48</v>
+        <v>6.41</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1003,7 +1105,7 @@
         <v>26</v>
       </c>
       <c r="B17">
-        <v>55.48</v>
+        <v>6.41</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1014,7 +1116,7 @@
         <v>27</v>
       </c>
       <c r="B18">
-        <v>66.67</v>
+        <v>6.67</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1025,7 +1127,7 @@
         <v>28</v>
       </c>
       <c r="B19">
-        <v>55.48</v>
+        <v>6.41</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1036,7 +1138,7 @@
         <v>29</v>
       </c>
       <c r="B20">
-        <v>55.48</v>
+        <v>6.43</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1047,7 +1149,7 @@
         <v>30</v>
       </c>
       <c r="B21">
-        <v>77.64</v>
+        <v>21.82</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1058,7 +1160,7 @@
         <v>31</v>
       </c>
       <c r="B22">
-        <v>55.48</v>
+        <v>6.41</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1069,7 +1171,7 @@
         <v>32</v>
       </c>
       <c r="B23">
-        <v>55.48</v>
+        <v>6.42</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1080,7 +1182,7 @@
         <v>33</v>
       </c>
       <c r="B24">
-        <v>55.48</v>
+        <v>6.43</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1091,7 +1193,7 @@
         <v>34</v>
       </c>
       <c r="B25">
-        <v>55.48</v>
+        <v>6.42</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1102,7 +1204,7 @@
         <v>35</v>
       </c>
       <c r="B26">
-        <v>55.48</v>
+        <v>6.44</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1113,7 +1215,7 @@
         <v>36</v>
       </c>
       <c r="B27">
-        <v>77.64</v>
+        <v>8.58</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1124,7 +1226,7 @@
         <v>37</v>
       </c>
       <c r="B28">
-        <v>66.67</v>
+        <v>6.52</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -1135,7 +1237,7 @@
         <v>38</v>
       </c>
       <c r="B29">
-        <v>55.48</v>
+        <v>6.42</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1146,7 +1248,7 @@
         <v>39</v>
       </c>
       <c r="B30">
-        <v>55.48</v>
+        <v>6.41</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -1157,7 +1259,7 @@
         <v>40</v>
       </c>
       <c r="B31">
-        <v>77.64</v>
+        <v>30</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -1168,7 +1270,7 @@
         <v>41</v>
       </c>
       <c r="B32">
-        <v>77.64</v>
+        <v>20</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -1179,7 +1281,7 @@
         <v>42</v>
       </c>
       <c r="B33">
-        <v>66.67</v>
+        <v>10</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -1194,8 +1296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1243,7 +1345,7 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>30.00000055000001</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1258,16 +1360,16 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>70</v>
+        <v>90.000001650000016</v>
       </c>
       <c r="H2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>50</v>
+        <v>5.0000005500000064</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -1281,7 +1383,7 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>29.999999294999991</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1299,13 +1401,13 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>49.999998849999997</v>
+        <v>70.000000705000005</v>
       </c>
       <c r="I3">
-        <v>29.99999931</v>
+        <v>29.999999294999991</v>
       </c>
       <c r="J3">
-        <v>49.999998849999997</v>
+        <v>5.000001057500012</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -1319,10 +1421,10 @@
         <v>13</v>
       </c>
       <c r="B4">
-        <v>30.00000086999999</v>
+        <v>89.999999650000007</v>
       </c>
       <c r="C4">
-        <v>20.000000579999991</v>
+        <v>20.00000069999999</v>
       </c>
       <c r="D4">
         <v>100</v>
@@ -1334,16 +1436,16 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>69.999999130000006</v>
+        <v>89.999999650000007</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>20.000000579999991</v>
+        <v>30.000001049999991</v>
       </c>
       <c r="J4">
-        <v>49.999998550000022</v>
+        <v>20.00000069999999</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -1357,7 +1459,7 @@
         <v>14</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>30.000001525000009</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1372,16 +1474,16 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>70.000001040000015</v>
+        <v>90.000001525000016</v>
       </c>
       <c r="H5">
-        <v>30.000001560000019</v>
+        <v>50.000001525000023</v>
       </c>
       <c r="I5">
-        <v>10.000000520000009</v>
+        <v>30.000001525000009</v>
       </c>
       <c r="J5">
-        <v>50</v>
+        <v>4.9999992374999938</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1395,10 +1497,10 @@
         <v>15</v>
       </c>
       <c r="B6">
-        <v>30</v>
+        <v>29.999999025000001</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>19.99999935000001</v>
       </c>
       <c r="D6">
         <v>100</v>
@@ -1410,16 +1512,16 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>70</v>
+        <v>90.000000324999988</v>
       </c>
       <c r="H6">
-        <v>30</v>
+        <v>49.999998374999997</v>
       </c>
       <c r="I6">
-        <v>20</v>
+        <v>29.999999025000001</v>
       </c>
       <c r="J6">
-        <v>50</v>
+        <v>5.0000014624999887</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1433,7 +1535,7 @@
         <v>16</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>60.000001340000019</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1448,16 +1550,16 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>70.000000270000001</v>
+        <v>90.000002010000031</v>
       </c>
       <c r="H7">
-        <v>29.999999729999999</v>
+        <v>50</v>
       </c>
       <c r="I7">
-        <v>19.999998919999999</v>
+        <v>30.000000670000009</v>
       </c>
       <c r="J7">
-        <v>50.000001349999998</v>
+        <v>4.9999989949999906</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1471,7 +1573,7 @@
         <v>17</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>29.999999549999991</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1486,16 +1588,16 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>70.000000240000006</v>
+        <v>90.000000900000003</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>19.999999040000009</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>49.999998800000007</v>
+        <v>4.9999995499999956</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1509,10 +1611,10 @@
         <v>18</v>
       </c>
       <c r="B9">
-        <v>30</v>
+        <v>29.999999655</v>
       </c>
       <c r="C9">
-        <v>20</v>
+        <v>19.999998619999989</v>
       </c>
       <c r="D9">
         <v>100</v>
@@ -1524,16 +1626,16 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>70</v>
+        <v>90.000002415000026</v>
       </c>
       <c r="H9">
-        <v>30</v>
+        <v>70.000000345000018</v>
       </c>
       <c r="I9">
-        <v>20</v>
+        <v>29.999999655</v>
       </c>
       <c r="J9">
-        <v>50</v>
+        <v>4.9999987924999898</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1547,10 +1649,10 @@
         <v>19</v>
       </c>
       <c r="B10">
-        <v>29.999999729999999</v>
+        <v>30.00000051</v>
       </c>
       <c r="C10">
-        <v>19.999998919999999</v>
+        <v>19.99999949</v>
       </c>
       <c r="D10">
         <v>100</v>
@@ -1565,13 +1667,13 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>50.000001349999998</v>
+        <v>69.999999490000008</v>
       </c>
       <c r="I10">
-        <v>19.999998919999999</v>
+        <v>30.00000051</v>
       </c>
       <c r="J10">
-        <v>50.000001349999998</v>
+        <v>4.9999992349999953</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1585,7 +1687,7 @@
         <v>20</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>69.99999944999999</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1603,13 +1705,13 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>50.000001100000013</v>
+        <v>69.99999944999999</v>
       </c>
       <c r="I11">
-        <v>20</v>
+        <v>30.00000055000001</v>
       </c>
       <c r="J11">
-        <v>50.000001100000013</v>
+        <v>5.0000005500000064</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1623,10 +1725,10 @@
         <v>21</v>
       </c>
       <c r="B12">
-        <v>29.999999729999999</v>
+        <v>30.00000051</v>
       </c>
       <c r="C12">
-        <v>19.999998919999999</v>
+        <v>19.99999949</v>
       </c>
       <c r="D12">
         <v>100</v>
@@ -1641,13 +1743,13 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>50.000001349999998</v>
+        <v>69.999999490000008</v>
       </c>
       <c r="I12">
-        <v>19.999998919999999</v>
+        <v>30.00000051</v>
       </c>
       <c r="J12">
-        <v>50.000001349999998</v>
+        <v>4.9999992349999953</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1661,7 +1763,7 @@
         <v>22</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>29.999999294999991</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1679,13 +1781,13 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>50.000001100000013</v>
+        <v>70.000000705000005</v>
       </c>
       <c r="I13">
-        <v>20</v>
+        <v>29.999999294999991</v>
       </c>
       <c r="J13">
-        <v>50.000001100000013</v>
+        <v>5.000001057500012</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1699,7 +1801,7 @@
         <v>23</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>29.999999549999991</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1714,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>89.999999279999997</v>
+        <v>90.000000900000003</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1723,7 +1825,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>49.999998800000007</v>
+        <v>4.9999995499999956</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1737,7 +1839,7 @@
         <v>24</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>29.999999549999991</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1746,13 +1848,13 @@
         <v>100</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>89.999999279999997</v>
+        <v>90.000000900000003</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1761,7 +1863,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>49.999998800000007</v>
+        <v>4.9999995499999956</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1775,7 +1877,7 @@
         <v>25</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>29.999999549999991</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1790,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>89.999999279999997</v>
+        <v>90.000000900000003</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1799,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>49.999998800000007</v>
+        <v>4.9999995499999956</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1813,7 +1915,7 @@
         <v>26</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>29.999999549999991</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1822,13 +1924,13 @@
         <v>100</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>89.999999279999997</v>
+        <v>90.000000900000003</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1837,7 +1939,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>49.999998800000007</v>
+        <v>4.9999995499999956</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1851,10 +1953,10 @@
         <v>27</v>
       </c>
       <c r="B18">
-        <v>30.000000300000011</v>
+        <v>30.000001475000001</v>
       </c>
       <c r="C18">
-        <v>20.00000120000001</v>
+        <v>20</v>
       </c>
       <c r="D18">
         <v>100</v>
@@ -1866,16 +1968,16 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>69.999999700000004</v>
+        <v>70.000001475000005</v>
       </c>
       <c r="H18">
-        <v>30.000000300000011</v>
+        <v>70.000001475000005</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>50.00000150000001</v>
+        <v>4.9999992624999976</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1889,7 +1991,7 @@
         <v>28</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>29.999999549999991</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1904,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>89.999999279999997</v>
+        <v>90.000000900000003</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1913,7 +2015,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>49.999998800000007</v>
+        <v>4.9999995499999956</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1927,7 +2029,7 @@
         <v>29</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>29.999999294999991</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1945,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>50.000001100000013</v>
+        <v>70.000000705000005</v>
       </c>
       <c r="I20">
-        <v>20</v>
+        <v>29.999999294999991</v>
       </c>
       <c r="J20">
-        <v>50.000001100000013</v>
+        <v>5.000001057500012</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1965,7 +2067,7 @@
         <v>30</v>
       </c>
       <c r="B21">
-        <v>30.000000300000011</v>
+        <v>30.000001259999991</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1980,16 +2082,16 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>69.999999700000004</v>
+        <v>90.000000629999988</v>
       </c>
       <c r="H21">
-        <v>30.000000300000011</v>
+        <v>59.999999369999998</v>
       </c>
       <c r="I21">
-        <v>20.00000120000001</v>
+        <v>30.000001259999991</v>
       </c>
       <c r="J21">
-        <v>50.00000150000001</v>
+        <v>5.0000012599999897</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2003,7 +2105,7 @@
         <v>31</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>30.000001525000009</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -2015,19 +2117,19 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G22">
-        <v>90.000002080000016</v>
+        <v>90.000001525000016</v>
       </c>
       <c r="H22">
-        <v>20</v>
+        <v>50.000001525000023</v>
       </c>
       <c r="I22">
-        <v>20.000001040000011</v>
+        <v>30.000001525000009</v>
       </c>
       <c r="J22">
-        <v>50</v>
+        <v>4.9999992374999938</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2041,7 +2143,7 @@
         <v>32</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>29.999999549999991</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -2056,7 +2158,7 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>89.999999279999997</v>
+        <v>90.000000900000003</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -2065,7 +2167,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>49.999998800000007</v>
+        <v>4.9999995499999956</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -2079,7 +2181,7 @@
         <v>33</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>29.999999549999991</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -2094,7 +2196,7 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>89.999999279999997</v>
+        <v>90.000000900000003</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -2103,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>49.999998800000007</v>
+        <v>4.9999995499999956</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2117,7 +2219,7 @@
         <v>34</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>29.999999549999991</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -2126,13 +2228,13 @@
         <v>100</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>89.999999279999997</v>
+        <v>90.000000900000003</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -2141,7 +2243,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>49.999998800000007</v>
+        <v>4.9999995499999956</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2155,7 +2257,7 @@
         <v>35</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>29.999999549999991</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -2170,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>89.999999279999997</v>
+        <v>90.000000900000003</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -2179,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>49.999998800000007</v>
+        <v>4.9999995499999956</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -2193,10 +2295,10 @@
         <v>36</v>
       </c>
       <c r="B27">
-        <v>20.000000530000001</v>
+        <v>29.99999931</v>
       </c>
       <c r="C27">
-        <v>5</v>
+        <v>4.9999998849999994</v>
       </c>
       <c r="D27">
         <v>100</v>
@@ -2208,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>89.999999734999989</v>
+        <v>90.000000229999998</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -2217,7 +2319,7 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>50.000001324999999</v>
+        <v>4.9999998849999994</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2231,7 +2333,7 @@
         <v>37</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>29.999999549999991</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -2246,7 +2348,7 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <v>89.999999279999997</v>
+        <v>90.000000900000003</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -2255,7 +2357,7 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>49.999998800000007</v>
+        <v>4.9999995499999956</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2269,7 +2371,7 @@
         <v>38</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>29.999999549999991</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -2284,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>89.999999279999997</v>
+        <v>90.000000900000003</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -2293,7 +2395,7 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>49.999998800000007</v>
+        <v>4.9999995499999956</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -2307,7 +2409,7 @@
         <v>39</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>29.999999549999991</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -2322,7 +2424,7 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>89.999999279999997</v>
+        <v>90.000000900000003</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -2331,7 +2433,7 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>49.999998800000007</v>
+        <v>4.9999995499999956</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -2345,10 +2447,10 @@
         <v>40</v>
       </c>
       <c r="B31">
-        <v>30.000000300000011</v>
+        <v>30.000001259999991</v>
       </c>
       <c r="C31">
-        <v>20.00000120000001</v>
+        <v>19.999998740000009</v>
       </c>
       <c r="D31">
         <v>100</v>
@@ -2360,16 +2462,16 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>69.999999700000004</v>
+        <v>90.000000629999988</v>
       </c>
       <c r="H31">
-        <v>30.000000300000011</v>
+        <v>69.999998739999995</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="J31">
-        <v>50.00000150000001</v>
+        <v>5.0000012599999897</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -2383,7 +2485,7 @@
         <v>41</v>
       </c>
       <c r="B32">
-        <v>30</v>
+        <v>29.999999549999991</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -2401,13 +2503,13 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>50</v>
+        <v>60.000001350000012</v>
       </c>
       <c r="I32">
-        <v>20</v>
+        <v>29.999999549999991</v>
       </c>
       <c r="J32">
-        <v>50</v>
+        <v>4.9999995499999956</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -2421,7 +2523,7 @@
         <v>42</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>29.999999294999991</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -2439,13 +2541,13 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>50.000001100000013</v>
+        <v>70.000000705000005</v>
       </c>
       <c r="I33">
-        <v>20</v>
+        <v>29.999999294999991</v>
       </c>
       <c r="J33">
-        <v>50.000001100000013</v>
+        <v>5.000001057500012</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -2463,8 +2565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2512,13 +2614,13 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <v>0.50095019880045821</v>
+        <v>0.49965243568691842</v>
       </c>
       <c r="C2">
         <v>0.32542624166048922</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -2550,13 +2652,13 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>0.50095019880045821</v>
+        <v>0.49965243568691842</v>
       </c>
       <c r="C3">
         <v>0.32542624166048922</v>
       </c>
       <c r="D3">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -2588,13 +2690,13 @@
         <v>13</v>
       </c>
       <c r="B4">
-        <v>0.50000164487211118</v>
+        <v>0.49965243568691842</v>
       </c>
       <c r="C4">
         <v>0.25714285714285712</v>
       </c>
       <c r="D4">
-        <v>140</v>
+        <v>168</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -2626,13 +2728,13 @@
         <v>14</v>
       </c>
       <c r="B5">
-        <v>0.50095019880045821</v>
+        <v>0.49965243568691842</v>
       </c>
       <c r="C5">
         <v>0.32542624166048922</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2664,13 +2766,13 @@
         <v>15</v>
       </c>
       <c r="B6">
-        <v>0.50000164487211118</v>
+        <v>0.49965243568691842</v>
       </c>
       <c r="C6">
         <v>0.25714285714285712</v>
       </c>
       <c r="D6">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -2702,13 +2804,13 @@
         <v>16</v>
       </c>
       <c r="B7">
-        <v>0.50095019880045821</v>
+        <v>0.49965243568691842</v>
       </c>
       <c r="C7">
         <v>0.32542624166048922</v>
       </c>
       <c r="D7">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -2740,13 +2842,13 @@
         <v>17</v>
       </c>
       <c r="B8">
-        <v>0.50095019880045821</v>
+        <v>0.49965243568691842</v>
       </c>
       <c r="C8">
         <v>0.32542624166048922</v>
       </c>
       <c r="D8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2778,13 +2880,13 @@
         <v>18</v>
       </c>
       <c r="B9">
-        <v>0.50000164487211118</v>
+        <v>0.49965243568691842</v>
       </c>
       <c r="C9">
         <v>0.25714285714285712</v>
       </c>
       <c r="D9">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -2816,13 +2918,13 @@
         <v>19</v>
       </c>
       <c r="B10">
-        <v>0.50000164487211118</v>
+        <v>0.49965243568691842</v>
       </c>
       <c r="C10">
         <v>0.25714285714285712</v>
       </c>
       <c r="D10">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -2834,10 +2936,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.85</v>
+        <v>0.75</v>
       </c>
       <c r="I10">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -2854,13 +2956,13 @@
         <v>20</v>
       </c>
       <c r="B11">
-        <v>0.50095019880045821</v>
+        <v>0.49965243568691842</v>
       </c>
       <c r="C11">
         <v>0.32542624166048922</v>
       </c>
       <c r="D11">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -2892,13 +2994,13 @@
         <v>21</v>
       </c>
       <c r="B12">
-        <v>0.50000164487211118</v>
+        <v>0.49965243568691842</v>
       </c>
       <c r="C12">
         <v>0.25714285714285712</v>
       </c>
       <c r="D12">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -2930,13 +3032,13 @@
         <v>22</v>
       </c>
       <c r="B13">
-        <v>0.50095019880045821</v>
+        <v>0.49965243568691842</v>
       </c>
       <c r="C13">
         <v>0.32542624166048922</v>
       </c>
       <c r="D13">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -2968,13 +3070,13 @@
         <v>23</v>
       </c>
       <c r="B14">
-        <v>0.50095019880045821</v>
+        <v>0.49965243568691842</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -3006,13 +3108,13 @@
         <v>24</v>
       </c>
       <c r="B15">
-        <v>0.50095019880045821</v>
+        <v>0.49965243568691842</v>
       </c>
       <c r="C15">
         <v>0.32542624166048922</v>
       </c>
       <c r="D15">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -3044,7 +3146,7 @@
         <v>25</v>
       </c>
       <c r="B16">
-        <v>0.50095019880045821</v>
+        <v>0.49965243568691842</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -3082,13 +3184,13 @@
         <v>26</v>
       </c>
       <c r="B17">
-        <v>0.50095019880045821</v>
+        <v>0.49965243568691842</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -3120,13 +3222,13 @@
         <v>27</v>
       </c>
       <c r="B18">
-        <v>0.50000164487211118</v>
+        <v>0.49965243568691842</v>
       </c>
       <c r="C18">
         <v>0.25714285714285712</v>
       </c>
       <c r="D18">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -3158,7 +3260,7 @@
         <v>28</v>
       </c>
       <c r="B19">
-        <v>0.50095019880045821</v>
+        <v>0.49965243568691842</v>
       </c>
       <c r="C19">
         <v>0.32542624166048922</v>
@@ -3196,13 +3298,13 @@
         <v>29</v>
       </c>
       <c r="B20">
-        <v>0.50095019880045821</v>
+        <v>0.49965243568691842</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -3234,13 +3336,13 @@
         <v>30</v>
       </c>
       <c r="B21">
-        <v>0.50000164487211118</v>
+        <v>0.49965243568691842</v>
       </c>
       <c r="C21">
         <v>0.28192371475953559</v>
       </c>
       <c r="D21">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -3272,7 +3374,7 @@
         <v>31</v>
       </c>
       <c r="B22">
-        <v>0.50095019880045821</v>
+        <v>0.49965243568691842</v>
       </c>
       <c r="C22">
         <v>0.32542624166048922</v>
@@ -3310,7 +3412,7 @@
         <v>32</v>
       </c>
       <c r="B23">
-        <v>0.50095019880045821</v>
+        <v>0.49965243568691842</v>
       </c>
       <c r="C23">
         <v>0.32542624166048922</v>
@@ -3348,13 +3450,13 @@
         <v>33</v>
       </c>
       <c r="B24">
-        <v>0.50095019880045821</v>
+        <v>0.49965243568691842</v>
       </c>
       <c r="C24">
         <v>0.32542624166048922</v>
       </c>
       <c r="D24">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -3386,13 +3488,13 @@
         <v>34</v>
       </c>
       <c r="B25">
-        <v>0.50095019880045821</v>
+        <v>0.49965243568691842</v>
       </c>
       <c r="C25">
         <v>0.32542624166048922</v>
       </c>
       <c r="D25">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -3424,13 +3526,13 @@
         <v>35</v>
       </c>
       <c r="B26">
-        <v>0.50095019880045821</v>
+        <v>0.49965243568691842</v>
       </c>
       <c r="C26">
         <v>0.32542624166048922</v>
       </c>
       <c r="D26">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -3462,13 +3564,13 @@
         <v>36</v>
       </c>
       <c r="B27">
-        <v>0.50000164487211118</v>
+        <v>0.49965243568691842</v>
       </c>
       <c r="C27">
         <v>0.25714285714285712</v>
       </c>
       <c r="D27">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -3500,13 +3602,13 @@
         <v>37</v>
       </c>
       <c r="B28">
-        <v>0.50095019880045821</v>
+        <v>0.49965243568691842</v>
       </c>
       <c r="C28">
         <v>0.32542624166048922</v>
       </c>
       <c r="D28">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -3538,13 +3640,13 @@
         <v>38</v>
       </c>
       <c r="B29">
-        <v>0.50095019880045821</v>
+        <v>0.49965243568691842</v>
       </c>
       <c r="C29">
         <v>0.32542624166048922</v>
       </c>
       <c r="D29">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -3576,13 +3678,13 @@
         <v>39</v>
       </c>
       <c r="B30">
-        <v>0.50095019880045821</v>
+        <v>0.49965243568691842</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -3614,13 +3716,13 @@
         <v>40</v>
       </c>
       <c r="B31">
-        <v>0.50000164487211118</v>
+        <v>0.49965243568691842</v>
       </c>
       <c r="C31">
         <v>0.25714285714285712</v>
       </c>
       <c r="D31">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -3635,7 +3737,7 @@
         <v>0.7</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J31">
         <v>1</v>
@@ -3652,13 +3754,13 @@
         <v>41</v>
       </c>
       <c r="B32">
-        <v>0.50000164487211118</v>
+        <v>0.49965243568691842</v>
       </c>
       <c r="C32">
         <v>0.28192371475953559</v>
       </c>
       <c r="D32">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -3690,13 +3792,13 @@
         <v>42</v>
       </c>
       <c r="B33">
-        <v>0.50095019880045821</v>
+        <v>0.49965243568691842</v>
       </c>
       <c r="C33">
         <v>0</v>
       </c>
       <c r="D33">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -3732,9 +3834,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -3784,34 +3884,34 @@
         <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="I2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -3822,34 +3922,34 @@
         <v>54</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H3" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -3857,37 +3957,37 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" t="s">
         <v>58</v>
       </c>
-      <c r="C4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G4" t="s">
-        <v>61</v>
-      </c>
       <c r="H4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J4" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="K4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -3898,34 +3998,34 @@
         <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H5" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="I5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -3933,37 +4033,37 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D6" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="H6" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="I6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -3974,34 +4074,34 @@
         <v>54</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D7" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G7" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="H7" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="I7" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="J7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -4012,34 +4112,34 @@
         <v>54</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D8" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G8" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="H8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -4047,37 +4147,37 @@
         <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D9" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G9" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H9" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="I9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -4085,37 +4185,37 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D10" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H10" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="I10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -4126,34 +4226,34 @@
         <v>54</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D11" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="E11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H11" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="I11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -4161,37 +4261,37 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D12" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="E12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H12" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="I12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -4202,34 +4302,34 @@
         <v>54</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D13" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="E13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H13" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="I13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -4240,34 +4340,34 @@
         <v>54</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D14" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="E14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G14" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -4278,34 +4378,34 @@
         <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D15" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="E15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G15" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -4316,34 +4416,34 @@
         <v>54</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D16" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G16" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -4354,34 +4454,34 @@
         <v>54</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D17" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="E17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G17" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -4389,37 +4489,37 @@
         <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C18" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D18" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="E18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G18" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="H18" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="I18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -4430,34 +4530,34 @@
         <v>54</v>
       </c>
       <c r="C19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D19" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="E19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G19" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -4468,34 +4568,34 @@
         <v>54</v>
       </c>
       <c r="C20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D20" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G20" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H20" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="I20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
@@ -4503,37 +4603,37 @@
         <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D21" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G21" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="H21" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="I21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
@@ -4544,34 +4644,34 @@
         <v>54</v>
       </c>
       <c r="C22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D22" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G22" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="H22" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="I22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
@@ -4582,34 +4682,34 @@
         <v>54</v>
       </c>
       <c r="C23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D23" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23" t="s">
+        <v>55</v>
+      </c>
+      <c r="G23" t="s">
         <v>85</v>
       </c>
-      <c r="E23" t="s">
-        <v>54</v>
-      </c>
-      <c r="F23" t="s">
-        <v>54</v>
-      </c>
-      <c r="G23" t="s">
-        <v>76</v>
-      </c>
       <c r="H23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
@@ -4620,34 +4720,34 @@
         <v>54</v>
       </c>
       <c r="C24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D24" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="E24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G24" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
@@ -4658,34 +4758,34 @@
         <v>54</v>
       </c>
       <c r="C25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D25" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G25" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
@@ -4696,34 +4796,34 @@
         <v>54</v>
       </c>
       <c r="C26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D26" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="E26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G26" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
@@ -4734,34 +4834,34 @@
         <v>54</v>
       </c>
       <c r="C27" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D27" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="E27" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F27" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G27" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="H27" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I27" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J27" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K27" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L27" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
@@ -4772,34 +4872,34 @@
         <v>54</v>
       </c>
       <c r="C28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D28" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="E28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G28" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
@@ -4810,34 +4910,34 @@
         <v>54</v>
       </c>
       <c r="C29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D29" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G29" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
@@ -4848,34 +4948,34 @@
         <v>54</v>
       </c>
       <c r="C30" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D30" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E30" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F30" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G30" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H30" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I30" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J30" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K30" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L30" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
@@ -4883,37 +4983,37 @@
         <v>40</v>
       </c>
       <c r="B31" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C31" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D31" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E31" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F31" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G31" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="H31" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="I31" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J31" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K31" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L31" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
@@ -4921,37 +5021,37 @@
         <v>41</v>
       </c>
       <c r="B32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C32" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D32" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="E32" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F32" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G32" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H32" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="I32" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J32" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K32" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L32" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
@@ -4962,34 +5062,34 @@
         <v>54</v>
       </c>
       <c r="C33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D33" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="E33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H33" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="I33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -5002,7 +5102,7 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5050,7 +5150,7 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -5065,7 +5165,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -5088,7 +5188,7 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -5141,7 +5241,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -5150,7 +5250,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -5164,7 +5264,7 @@
         <v>14</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5179,7 +5279,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -5217,10 +5317,10 @@
         <v>0</v>
       </c>
       <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6">
         <v>3</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -5240,7 +5340,7 @@
         <v>16</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -5255,13 +5355,13 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -5278,7 +5378,7 @@
         <v>17</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -5293,7 +5393,7 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -5331,7 +5431,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -5392,7 +5492,7 @@
         <v>20</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -5410,7 +5510,7 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -5448,7 +5548,7 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -5468,7 +5568,7 @@
         <v>22</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -5486,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -5506,7 +5606,7 @@
         <v>23</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -5521,7 +5621,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -5544,7 +5644,7 @@
         <v>24</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -5553,13 +5653,13 @@
         <v>4</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -5582,7 +5682,7 @@
         <v>25</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -5597,7 +5697,7 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -5620,7 +5720,7 @@
         <v>26</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -5629,13 +5729,13 @@
         <v>4</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -5673,7 +5773,7 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -5696,7 +5796,7 @@
         <v>28</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -5711,7 +5811,7 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -5734,7 +5834,7 @@
         <v>29</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -5749,7 +5849,7 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -5787,7 +5887,7 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -5810,7 +5910,7 @@
         <v>31</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -5822,10 +5922,10 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -5848,7 +5948,7 @@
         <v>32</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -5863,7 +5963,7 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -5886,7 +5986,7 @@
         <v>33</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -5901,7 +6001,7 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -5924,7 +6024,7 @@
         <v>34</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -5933,13 +6033,13 @@
         <v>4</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -5962,7 +6062,7 @@
         <v>35</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -5977,7 +6077,7 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -6000,7 +6100,7 @@
         <v>36</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -6015,7 +6115,7 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -6038,7 +6138,7 @@
         <v>37</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -6053,7 +6153,7 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -6076,7 +6176,7 @@
         <v>38</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -6091,7 +6191,7 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -6114,7 +6214,7 @@
         <v>39</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -6129,7 +6229,7 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -6167,10 +6267,10 @@
         <v>0</v>
       </c>
       <c r="G31">
+        <v>4</v>
+      </c>
+      <c r="H31">
         <v>3</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -6208,7 +6308,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -6228,7 +6328,7 @@
         <v>42</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -6246,7 +6346,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -6270,9 +6370,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E2:F33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="38" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -6317,37 +6422,37 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E2" t="s">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="F2" t="s">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="G2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="H2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="I2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="J2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="K2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="L2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -6355,37 +6460,37 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D3" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="E3" t="s">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="F3" t="s">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="G3" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="H3" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="I3" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="J3" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="K3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="L3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -6393,37 +6498,37 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C4" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D4" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="E4" t="s">
-        <v>99</v>
+        <v>134</v>
       </c>
       <c r="F4" t="s">
-        <v>99</v>
+        <v>134</v>
       </c>
       <c r="G4" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="H4" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="I4" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="J4" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="K4" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="L4" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -6431,37 +6536,37 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C5" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F5" t="s">
+        <v>135</v>
+      </c>
+      <c r="G5" t="s">
         <v>106</v>
       </c>
-      <c r="E5" t="s">
-        <v>99</v>
-      </c>
-      <c r="F5" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" t="s">
-        <v>100</v>
-      </c>
       <c r="H5" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="I5" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="J5" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="K5" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="L5" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -6469,37 +6574,37 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C6" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F6" t="s">
+        <v>136</v>
+      </c>
+      <c r="G6" t="s">
+        <v>106</v>
+      </c>
+      <c r="H6" t="s">
+        <v>107</v>
+      </c>
+      <c r="I6" t="s">
         <v>108</v>
       </c>
-      <c r="E6" t="s">
-        <v>99</v>
-      </c>
-      <c r="F6" t="s">
-        <v>99</v>
-      </c>
-      <c r="G6" t="s">
-        <v>100</v>
-      </c>
-      <c r="H6" t="s">
-        <v>101</v>
-      </c>
-      <c r="I6" t="s">
-        <v>102</v>
-      </c>
       <c r="J6" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="K6" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="L6" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -6507,37 +6612,37 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C7" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H7" t="s">
+        <v>113</v>
+      </c>
+      <c r="I7" t="s">
+        <v>108</v>
+      </c>
+      <c r="J7" t="s">
         <v>109</v>
       </c>
-      <c r="E7" t="s">
-        <v>99</v>
-      </c>
-      <c r="F7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G7" t="s">
-        <v>100</v>
-      </c>
-      <c r="H7" t="s">
-        <v>107</v>
-      </c>
-      <c r="I7" t="s">
-        <v>102</v>
-      </c>
-      <c r="J7" t="s">
-        <v>103</v>
-      </c>
       <c r="K7" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="L7" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -6545,37 +6650,37 @@
         <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D8" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E8" t="s">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="F8" t="s">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="G8" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="H8" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="I8" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="J8" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="K8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="L8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -6583,37 +6688,37 @@
         <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C9" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D9" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E9" t="s">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="F9" t="s">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="G9" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="H9" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="I9" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="J9" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="K9" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="L9" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -6621,37 +6726,37 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C10" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D10" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E10" t="s">
-        <v>99</v>
+        <v>140</v>
       </c>
       <c r="F10" t="s">
-        <v>99</v>
+        <v>140</v>
       </c>
       <c r="G10" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="H10" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="I10" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="J10" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="K10" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="L10" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -6659,37 +6764,37 @@
         <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C11" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D11" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="E11" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="F11" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="G11" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="H11" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="I11" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="J11" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="K11" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="L11" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -6697,37 +6802,37 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C12" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D12" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E12" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="F12" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="G12" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="H12" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="I12" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="J12" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="K12" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="L12" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -6735,37 +6840,37 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C13" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D13" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E13" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="F13" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="G13" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="H13" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="I13" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="J13" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="K13" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="L13" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -6773,37 +6878,37 @@
         <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C14" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D14" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E14" t="s">
-        <v>99</v>
+        <v>141</v>
       </c>
       <c r="F14" t="s">
-        <v>99</v>
+        <v>141</v>
       </c>
       <c r="G14" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="H14" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="I14" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="J14" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="K14" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="L14" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -6811,37 +6916,37 @@
         <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C15" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D15" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="E15" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="F15" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="G15" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="H15" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="I15" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="J15" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="K15" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="L15" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -6849,37 +6954,37 @@
         <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C16" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D16" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="E16" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="F16" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="G16" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="H16" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="I16" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="J16" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="K16" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="L16" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -6887,37 +6992,37 @@
         <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C17" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D17" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="E17" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="F17" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="G17" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="H17" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="I17" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="J17" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="K17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="L17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -6925,37 +7030,37 @@
         <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C18" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D18" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="E18" t="s">
-        <v>99</v>
+        <v>140</v>
       </c>
       <c r="F18" t="s">
-        <v>99</v>
+        <v>140</v>
       </c>
       <c r="G18" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="H18" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="I18" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="J18" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="K18" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="L18" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -6963,37 +7068,37 @@
         <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C19" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D19" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="E19" t="s">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="F19" t="s">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="G19" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="H19" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="I19" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="J19" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="K19" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="L19" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -7001,37 +7106,37 @@
         <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C20" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D20" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E20" t="s">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="F20" t="s">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="G20" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="H20" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="I20" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="J20" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="K20" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="L20" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
@@ -7039,37 +7144,37 @@
         <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C21" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D21" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E21" t="s">
-        <v>99</v>
+        <v>137</v>
       </c>
       <c r="F21" t="s">
-        <v>99</v>
+        <v>137</v>
       </c>
       <c r="G21" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="H21" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="I21" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="J21" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="K21" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="L21" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
@@ -7077,37 +7182,37 @@
         <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C22" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D22" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="E22" t="s">
-        <v>99</v>
+        <v>136</v>
       </c>
       <c r="F22" t="s">
-        <v>99</v>
+        <v>136</v>
       </c>
       <c r="G22" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="H22" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="I22" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="J22" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="K22" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="L22" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
@@ -7115,37 +7220,37 @@
         <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C23" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D23" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="E23" t="s">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="F23" t="s">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="G23" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="H23" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="I23" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="J23" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="K23" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="L23" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
@@ -7153,37 +7258,37 @@
         <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C24" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D24" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E24" t="s">
-        <v>99</v>
+        <v>134</v>
       </c>
       <c r="F24" t="s">
-        <v>99</v>
+        <v>134</v>
       </c>
       <c r="G24" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="H24" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="I24" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="J24" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="K24" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="L24" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
@@ -7191,37 +7296,37 @@
         <v>34</v>
       </c>
       <c r="B25" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C25" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D25" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="E25" t="s">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="F25" t="s">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="G25" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="H25" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="I25" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="J25" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="K25" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="L25" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
@@ -7229,37 +7334,37 @@
         <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C26" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D26" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E26" t="s">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="F26" t="s">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="G26" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="H26" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="I26" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="J26" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="K26" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="L26" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
@@ -7267,37 +7372,37 @@
         <v>36</v>
       </c>
       <c r="B27" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C27" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D27" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E27" t="s">
-        <v>99</v>
+        <v>142</v>
       </c>
       <c r="F27" t="s">
-        <v>99</v>
+        <v>142</v>
       </c>
       <c r="G27" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="H27" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="I27" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="J27" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="K27" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="L27" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
@@ -7305,37 +7410,37 @@
         <v>37</v>
       </c>
       <c r="B28" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C28" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D28" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="E28" t="s">
-        <v>99</v>
+        <v>143</v>
       </c>
       <c r="F28" t="s">
-        <v>99</v>
+        <v>143</v>
       </c>
       <c r="G28" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="H28" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="I28" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="J28" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="K28" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="L28" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
@@ -7343,37 +7448,37 @@
         <v>38</v>
       </c>
       <c r="B29" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C29" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D29" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="E29" t="s">
-        <v>99</v>
+        <v>144</v>
       </c>
       <c r="F29" t="s">
-        <v>99</v>
+        <v>144</v>
       </c>
       <c r="G29" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="H29" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="I29" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="J29" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="K29" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="L29" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
@@ -7381,37 +7486,37 @@
         <v>39</v>
       </c>
       <c r="B30" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C30" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D30" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="E30" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="F30" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="G30" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="H30" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="I30" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="J30" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="K30" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="L30" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
@@ -7419,37 +7524,37 @@
         <v>40</v>
       </c>
       <c r="B31" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C31" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D31" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="E31" t="s">
-        <v>99</v>
+        <v>146</v>
       </c>
       <c r="F31" t="s">
-        <v>99</v>
+        <v>146</v>
       </c>
       <c r="G31" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="H31" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="I31" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="J31" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="K31" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="L31" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
@@ -7457,37 +7562,37 @@
         <v>41</v>
       </c>
       <c r="B32" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C32" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D32" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="E32" t="s">
-        <v>99</v>
+        <v>147</v>
       </c>
       <c r="F32" t="s">
-        <v>99</v>
+        <v>147</v>
       </c>
       <c r="G32" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="H32" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="I32" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="J32" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="K32" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="L32" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
@@ -7495,40 +7600,41 @@
         <v>42</v>
       </c>
       <c r="B33" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C33" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D33" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E33" t="s">
-        <v>99</v>
+        <v>148</v>
       </c>
       <c r="F33" t="s">
-        <v>99</v>
+        <v>148</v>
       </c>
       <c r="G33" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="H33" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="I33" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="J33" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="K33" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="L33" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>